--- a/DocxDocument.Model.Old/docs/OpenXml.xlsx
+++ b/DocxDocument.Model.Old/docs/OpenXml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\DocxDocument\DocxDocument.Model.Old\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4977E649-CFD0-4E52-8B61-2CF1E6852F63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70975ACD-8988-4021-96E8-ACEA848F6506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="15" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="5" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7766" uniqueCount="4561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="4561">
   <si>
     <t>Category</t>
   </si>
@@ -29777,8 +29777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA9C5F-297C-46FC-AEE7-DFF8EA5A5EEC}">
   <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31944,19 +31944,19 @@
         <v>4469</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>3591</v>
+        <v>4477</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>3626</v>
+        <v>4483</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>3654</v>
+        <v>4557</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>3384</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>4527</v>
+        <v>4485</v>
+      </c>
+      <c r="G52" s="36" t="s">
+        <v>4529</v>
       </c>
       <c r="H52" s="57" t="s">
         <v>4473</v>
@@ -31965,16 +31965,16 @@
         <v>4473</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="K52" s="57" t="s">
         <v>4473</v>
       </c>
       <c r="L52" s="57" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="M52" s="57" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="N52" s="28"/>
     </row>
@@ -31986,19 +31986,19 @@
         <v>4469</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>3862</v>
+        <v>4476</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>3626</v>
+        <v>4484</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="F53" s="36" t="s">
-        <v>3855</v>
+        <v>4557</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>4486</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>4554</v>
+        <v>4531</v>
       </c>
       <c r="H53" s="57" t="s">
         <v>4473</v>
@@ -32016,7 +32016,7 @@
         <v>3600</v>
       </c>
       <c r="M53" s="57" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="N53" s="28"/>
     </row>
@@ -32028,19 +32028,19 @@
         <v>4469</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>4477</v>
+        <v>4478</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>4483</v>
+        <v>4487</v>
       </c>
       <c r="E54" s="25" t="s">
         <v>4557</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>4485</v>
+        <v>4489</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>4529</v>
+        <v>4491</v>
       </c>
       <c r="H54" s="57" t="s">
         <v>4473</v>
@@ -32070,19 +32070,19 @@
         <v>4469</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>4476</v>
+        <v>4479</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>4484</v>
+        <v>4488</v>
       </c>
       <c r="E55" s="25" t="s">
         <v>4557</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>4486</v>
+        <v>4490</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="H55" s="57" t="s">
         <v>4473</v>
@@ -32104,27 +32104,27 @@
       </c>
       <c r="N55" s="28"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" ht="30">
       <c r="A56" s="25">
         <v>55</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>4469</v>
+        <v>4470</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>4478</v>
+        <v>4475</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>4487</v>
+        <v>4548</v>
       </c>
       <c r="E56" s="25" t="s">
         <v>4557</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>4489</v>
-      </c>
-      <c r="G56" s="36" t="s">
-        <v>4491</v>
+      <c r="F56" s="58" t="s">
+        <v>4551</v>
+      </c>
+      <c r="G56" s="27" t="s">
+        <v>4546</v>
       </c>
       <c r="H56" s="57" t="s">
         <v>4473</v>
@@ -32154,19 +32154,19 @@
         <v>4469</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>4479</v>
+        <v>4471</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>4488</v>
+        <v>3667</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>4557</v>
+        <v>3650</v>
       </c>
       <c r="F57" s="27" t="s">
-        <v>4490</v>
-      </c>
-      <c r="G57" s="36" t="s">
-        <v>4530</v>
+        <v>3380</v>
+      </c>
+      <c r="G57" s="27" t="s">
+        <v>4533</v>
       </c>
       <c r="H57" s="57" t="s">
         <v>4473</v>
@@ -32196,19 +32196,19 @@
         <v>4470</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="E58" s="25" t="s">
         <v>4557</v>
       </c>
-      <c r="F58" s="58" t="s">
-        <v>4551</v>
+      <c r="F58" s="27" t="s">
+        <v>4545</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="H58" s="57" t="s">
         <v>4473</v>
@@ -32230,27 +32230,27 @@
       </c>
       <c r="N58" s="28"/>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="25">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
         <v>4469</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>4471</v>
+        <v>3591</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>3667</v>
+        <v>3626</v>
       </c>
       <c r="E59" s="25" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>3380</v>
+        <v>3384</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>4533</v>
+        <v>4527</v>
       </c>
       <c r="H59" s="57" t="s">
         <v>4473</v>
@@ -32259,40 +32259,40 @@
         <v>4473</v>
       </c>
       <c r="J59" s="57" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="K59" s="57" t="s">
         <v>4473</v>
       </c>
       <c r="L59" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="M59" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="N59" s="28"/>
     </row>
-    <row r="60" spans="1:14" ht="30">
+    <row r="60" spans="1:14">
       <c r="A60" s="25">
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>4474</v>
+        <v>3862</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>4547</v>
+        <v>3626</v>
       </c>
       <c r="E60" s="25" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F60" s="27" t="s">
-        <v>4545</v>
-      </c>
-      <c r="G60" s="27" t="s">
-        <v>4544</v>
+        <v>3654</v>
+      </c>
+      <c r="F60" s="36" t="s">
+        <v>3855</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>4554</v>
       </c>
       <c r="H60" s="57" t="s">
         <v>4473</v>
@@ -32310,7 +32310,7 @@
         <v>3600</v>
       </c>
       <c r="M60" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="N60" s="28"/>
     </row>
@@ -32834,8 +32834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68172C7A-674A-4361-9F61-7935C1F5ACCA}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32846,9 +32846,9 @@
     <col min="4" max="4" width="13.5703125" style="25" customWidth="1"/>
     <col min="5" max="5" width="73.42578125" style="25" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="25" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="25" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="25" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
@@ -32871,970 +32871,1030 @@
       <c r="F1" s="52" t="s">
         <v>3400</v>
       </c>
-      <c r="G1" s="59" t="s">
+      <c r="G1" s="56" t="s">
+        <v>3734</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>3735</v>
+      </c>
+      <c r="I1" s="59" t="s">
         <v>3733</v>
       </c>
-      <c r="H1" s="56" t="s">
-        <v>3734</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>3735</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="25">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="75" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C2" s="75" t="s">
+        <v>3668</v>
+      </c>
+      <c r="D2" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>3402</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="75">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>3702</v>
+      </c>
+      <c r="C3" s="75" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D3" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>3403</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>3404</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="75">
+        <f t="shared" ref="A4:A37" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>3705</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>3670</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>3405</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>3406</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="75">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>3671</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>3407</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>3408</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="75">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="75" t="s">
+        <v>3708</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>3673</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>3411</v>
+      </c>
+      <c r="F6" s="76" t="s">
+        <v>3412</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="75">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="75" t="s">
+        <v>3710</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>3675</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>3416</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="75">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="75" t="s">
+        <v>3711</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>3418</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="75">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>3502</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>3420</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="75">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>3422</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="75">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>3713</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>3424</v>
+      </c>
+      <c r="G11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="75">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>3703</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>3680</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>3426</v>
+      </c>
+      <c r="G12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="75">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="75" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C13" s="75" t="s">
+        <v>3681</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>3427</v>
+      </c>
+      <c r="F13" s="76" t="s">
+        <v>3428</v>
+      </c>
+      <c r="G13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I13" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="75">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>3715</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>3429</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>3430</v>
+      </c>
+      <c r="G14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I14" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="75">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>3683</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>1803</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>3431</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>3432</v>
+      </c>
+      <c r="G15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="75">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="75" t="s">
+        <v>3717</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>3684</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I16" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="75">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="75" t="s">
+        <v>3718</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>3435</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>3436</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I17" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="75">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="75" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C18" s="75" t="s">
+        <v>3686</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>3437</v>
+      </c>
+      <c r="F18" s="76" t="s">
+        <v>3438</v>
+      </c>
+      <c r="G18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I18" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="75">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19" s="75" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>3449</v>
+      </c>
+      <c r="F19" s="76" t="s">
+        <v>3450</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="75">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="75" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C20" s="75" t="s">
+        <v>3631</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>3451</v>
+      </c>
+      <c r="F20" s="76" t="s">
+        <v>3452</v>
+      </c>
+      <c r="G20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="75">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E21" s="76" t="s">
+        <v>3453</v>
+      </c>
+      <c r="F21" s="76" t="s">
+        <v>3454</v>
+      </c>
+      <c r="G21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I21" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="75">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>3724</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E22" s="76" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F22" s="76" t="s">
+        <v>3456</v>
+      </c>
+      <c r="G22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I22" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="75">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="75" t="s">
+        <v>3725</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>3692</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F23" s="76" t="s">
+        <v>3458</v>
+      </c>
+      <c r="G23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="75">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E24" s="76" t="s">
+        <v>3459</v>
+      </c>
+      <c r="F24" s="76" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I24" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="75">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="75" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>3694</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>3654</v>
+      </c>
+      <c r="E25" s="76" t="s">
+        <v>3461</v>
+      </c>
+      <c r="F25" s="76" t="s">
+        <v>3462</v>
+      </c>
+      <c r="G25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="75">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="75" t="s">
+        <v>3727</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E26" s="76" t="s">
+        <v>3463</v>
+      </c>
+      <c r="F26" s="76" t="s">
+        <v>3464</v>
+      </c>
+      <c r="G26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="75">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>3696</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E27" s="76" t="s">
+        <v>3465</v>
+      </c>
+      <c r="F27" s="76" t="s">
+        <v>3466</v>
+      </c>
+      <c r="G27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="75">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>3655</v>
+      </c>
+      <c r="E28" s="76" t="s">
+        <v>3467</v>
+      </c>
+      <c r="F28" s="76" t="s">
+        <v>3468</v>
+      </c>
+      <c r="G28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I28" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="75">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>3730</v>
+      </c>
+      <c r="C29" s="75" t="s">
+        <v>3698</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E29" s="76" t="s">
+        <v>3469</v>
+      </c>
+      <c r="F29" s="76" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I29" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="75">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="75" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C30" s="75" t="s">
+        <v>3699</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E30" s="76" t="s">
+        <v>3471</v>
+      </c>
+      <c r="F30" s="76" t="s">
+        <v>3472</v>
+      </c>
+      <c r="G30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="75">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="75" t="s">
+        <v>3732</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E31" s="76" t="s">
+        <v>3473</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>3474</v>
+      </c>
+      <c r="G31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I31" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="79">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="79" t="s">
         <v>3721</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C32" s="79" t="s">
         <v>3688</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D32" s="79" t="s">
         <v>1800</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E32" s="80" t="s">
         <v>3442</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F32" s="80" t="s">
         <v>3443</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G32" s="81" t="s">
+        <v>4473</v>
+      </c>
+      <c r="H32" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I32" s="81" t="s">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>3720</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>3687</v>
-      </c>
-      <c r="D3" s="25" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="79">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="79" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D33" s="79" t="s">
         <v>3654</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>3439</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>3440</v>
-      </c>
-      <c r="G3" s="57" t="s">
+      <c r="E33" s="80" t="s">
+        <v>3409</v>
+      </c>
+      <c r="F33" s="80" t="s">
+        <v>3410</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>4473</v>
+      </c>
+      <c r="H33" s="81" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="25">
-        <v>3</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>3701</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>3668</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>3401</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>3402</v>
-      </c>
-      <c r="G4" s="57" t="s">
+      <c r="I33" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="H4" s="57" t="s">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="79">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>1800</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>3413</v>
+      </c>
+      <c r="F34" s="80" t="s">
+        <v>3414</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>4473</v>
+      </c>
+      <c r="H34" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="I4" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="25">
-        <v>4</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>3702</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>3669</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>3403</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>3404</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="25">
-        <v>5</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>3705</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>3670</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>3405</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>3406</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="25">
-        <v>6</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>3706</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>3671</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>3407</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>3408</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="25">
-        <v>7</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>3707</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>3672</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>3409</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>3410</v>
-      </c>
-      <c r="G8" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="25">
-        <v>8</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>3708</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>3673</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>3411</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>3412</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="25">
-        <v>9</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>3709</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>3674</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>1800</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>3413</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>3414</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="25">
-        <v>10</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>3710</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>3675</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>3415</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>3416</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I11" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="25">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>3711</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>3676</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>3417</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>3418</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="25">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>3502</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>3677</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>3419</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>3420</v>
-      </c>
-      <c r="G13" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I13" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="25">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>3712</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>3678</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>3421</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>3422</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="25">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>3713</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>3679</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>3423</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>3424</v>
-      </c>
-      <c r="G15" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I15" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="25">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>3703</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>3680</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>3425</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>3426</v>
-      </c>
-      <c r="G16" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I16" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="25">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>3714</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>3681</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>3427</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>3428</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H17" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I17" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="25">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>3715</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>3682</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>3429</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>3430</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H18" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="25">
-        <v>18</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>3716</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>3683</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>3431</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>3432</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H19" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I19" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="25">
-        <v>19</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>3717</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>3684</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>3433</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>3434</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I20" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="25">
-        <v>20</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>3718</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>3685</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>3435</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>3436</v>
-      </c>
-      <c r="G21" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I21" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="25">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>3719</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>3686</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>3437</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>3438</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H22" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I22" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="25">
-        <v>22</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>3736</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>3689</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>3445</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>3446</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="25">
-        <v>23</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>3722</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>3690</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>3447</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>3448</v>
-      </c>
-      <c r="G24" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>3628</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>3449</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>3450</v>
-      </c>
-      <c r="G25" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H25" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I25" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="25">
-        <v>25</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>3631</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>3451</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>3452</v>
-      </c>
-      <c r="G26" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H26" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I26" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="25">
-        <v>26</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>3723</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>3632</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>3453</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>3454</v>
-      </c>
-      <c r="G27" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H27" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I27" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="25">
-        <v>27</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>3724</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>3691</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>3455</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>3456</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="25">
-        <v>28</v>
-      </c>
-      <c r="B29" s="25" t="s">
-        <v>3725</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>3692</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>3457</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>3458</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I29" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="25">
-        <v>29</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>3726</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>3693</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>3650</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>3459</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>3460</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H30" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I30" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="25">
-        <v>30</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>3704</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>3694</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>3654</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>3461</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>3462</v>
-      </c>
-      <c r="G31" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H31" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I31" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="25">
-        <v>31</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>3727</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>3695</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>3655</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>3463</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>3464</v>
-      </c>
-      <c r="G32" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H32" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I32" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="25">
-        <v>32</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>3728</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>3696</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>3655</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>3465</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>3466</v>
-      </c>
-      <c r="G33" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H33" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I33" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="25">
-        <v>33</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>3729</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>3697</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>3655</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>3467</v>
-      </c>
-      <c r="F34" s="27" t="s">
-        <v>3468</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H34" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I34" s="57" t="s">
+      <c r="I34" s="81" t="s">
         <v>3600</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="25">
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>3730</v>
+        <v>3720</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>3698</v>
+        <v>3687</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>3469</v>
+        <v>3439</v>
       </c>
       <c r="F35" s="27" t="s">
-        <v>3470</v>
+        <v>3440</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="I35" s="57" t="s">
         <v>3600</v>
@@ -33842,28 +33902,29 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="25">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>3731</v>
+        <v>3736</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>3699</v>
+        <v>3689</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>3471</v>
+        <v>3445</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>3472</v>
+        <v>3446</v>
       </c>
       <c r="G36" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="I36" s="57" t="s">
         <v>3600</v>
@@ -33871,36 +33932,37 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="25">
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>3732</v>
+        <v>3722</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>3700</v>
+        <v>3690</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>3650</v>
+        <v>3654</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>3473</v>
+        <v>3447</v>
       </c>
       <c r="F37" s="27" t="s">
-        <v>3474</v>
+        <v>3448</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>3600</v>
+        <v>4473</v>
       </c>
       <c r="I37" s="57" t="s">
         <v>3600</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I37">
-    <sortCondition ref="A1:A37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+    <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DocxDocument.Model.Old/docs/OpenXml.xlsx
+++ b/DocxDocument.Model.Old/docs/OpenXml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\DocxDocument\DocxDocument.Model.Old\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70975ACD-8988-4021-96E8-ACEA848F6506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855B903-9078-4298-B279-3C459895EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7775" uniqueCount="4561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8085" uniqueCount="4564">
   <si>
     <t>Category</t>
   </si>
@@ -17096,12 +17096,6 @@
     <t>Paragraph Properties</t>
   </si>
   <si>
-    <t>Paragraph Properties BaseStyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Paragraph Properties Extended</t>
-  </si>
-  <si>
     <t>ParagraphMarkRunProperties</t>
   </si>
   <si>
@@ -19618,14 +19612,29 @@
     <t>ContextualAlternates</t>
   </si>
   <si>
-    <t>Nubering Symbol Run Properties</t>
+    <t>Base Run Properties</t>
+  </si>
+  <si>
+    <t>Ext Base Run Properties</t>
+  </si>
+  <si>
+    <t>Base Paragraph Properties</t>
+  </si>
+  <si>
+    <t>Ext Base Paragraph Properties</t>
+  </si>
+  <si>
+    <t>Run Properties Default</t>
+  </si>
+  <si>
+    <t>Paragraph Properties Default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19798,6 +19807,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -19923,7 +19941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -20154,6 +20172,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29775,10 +29802,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBA9C5F-297C-46FC-AEE7-DFF8EA5A5EEC}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R55" sqref="R55"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29790,27 +29818,28 @@
     <col min="5" max="5" width="17.5703125" style="25" customWidth="1"/>
     <col min="6" max="6" width="47" style="27" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="25" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="25" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="25" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" style="25" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="25"/>
+    <col min="8" max="10" width="12.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="25" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" style="25" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="25" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="25" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="60">
+    <row r="1" spans="1:17" ht="60">
       <c r="A1" s="60" t="s">
         <v>2856</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>4464</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>4466</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>4468</v>
-      </c>
       <c r="D1" s="52" t="s">
-        <v>4467</v>
+        <v>4465</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>856</v>
@@ -29819,33 +29848,42 @@
         <v>1863</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>4553</v>
-      </c>
-      <c r="H1" s="59" t="s">
+        <v>4551</v>
+      </c>
+      <c r="H1" s="87" t="s">
+        <v>4558</v>
+      </c>
+      <c r="I1" s="87" t="s">
+        <v>4559</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>4562</v>
+      </c>
+      <c r="K1" s="59" t="s">
+        <v>4478</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>3846</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>3845</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>4479</v>
+      </c>
+      <c r="O1" s="59" t="s">
         <v>4480</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>4560</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>3848</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>3847</v>
-      </c>
-      <c r="L1" s="59" t="s">
-        <v>4481</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="P1" s="59" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="75">
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C2" s="75" t="s">
         <v>3590</v>
@@ -29860,7 +29898,7 @@
         <v>3383</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>4492</v>
+        <v>4490</v>
       </c>
       <c r="H2" s="77" t="s">
         <v>3600</v>
@@ -29880,14 +29918,23 @@
       <c r="M2" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N2" s="28"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="75">
         <v>2</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>3361</v>
@@ -29902,7 +29949,7 @@
         <v>3361</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>4493</v>
+        <v>4491</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>3600</v>
@@ -29922,14 +29969,23 @@
       <c r="M3" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q3" s="28"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="75">
         <v>3</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>3561</v>
@@ -29944,7 +30000,7 @@
         <v>3362</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>4494</v>
+        <v>4492</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>3600</v>
@@ -29964,14 +30020,23 @@
       <c r="M4" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N4" s="28"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q4" s="28"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="75">
         <v>4</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>3581</v>
@@ -29986,7 +30051,7 @@
         <v>3374</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>4495</v>
+        <v>4493</v>
       </c>
       <c r="H5" s="77" t="s">
         <v>3600</v>
@@ -30006,14 +30071,23 @@
       <c r="M5" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N5" s="28"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q5" s="28"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="75">
         <v>5</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>3582</v>
@@ -30028,7 +30102,7 @@
         <v>3375</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>4496</v>
+        <v>4494</v>
       </c>
       <c r="H6" s="77" t="s">
         <v>3600</v>
@@ -30048,14 +30122,23 @@
       <c r="M6" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N6" s="28"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="N6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q6" s="28"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="75">
         <v>6</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C7" s="75" t="s">
         <v>3577</v>
@@ -30070,7 +30153,7 @@
         <v>3393</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="H7" s="77" t="s">
         <v>3600</v>
@@ -30090,17 +30173,26 @@
       <c r="M7" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="N7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="75">
         <v>7</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>3614</v>
@@ -30112,7 +30204,7 @@
         <v>3394</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>4498</v>
+        <v>4496</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>3600</v>
@@ -30132,14 +30224,23 @@
       <c r="M8" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N8" s="28"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="N8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q8" s="28"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="75">
         <v>8</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C9" s="75" t="s">
         <v>3562</v>
@@ -30154,7 +30255,7 @@
         <v>3364</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>4500</v>
+        <v>4498</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>3600</v>
@@ -30174,14 +30275,23 @@
       <c r="M9" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N9" s="28"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="N9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="75">
         <v>9</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C10" s="75" t="s">
         <v>3594</v>
@@ -30196,7 +30306,7 @@
         <v>3388</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>4515</v>
+        <v>4513</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>3600</v>
@@ -30216,14 +30326,23 @@
       <c r="M10" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N10" s="28"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q10" s="28"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="75">
         <v>10</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C11" s="75" t="s">
         <v>3395</v>
@@ -30238,7 +30357,7 @@
         <v>3395</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>4520</v>
+        <v>4518</v>
       </c>
       <c r="H11" s="77" t="s">
         <v>3600</v>
@@ -30258,14 +30377,23 @@
       <c r="M11" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N11" s="28"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="N11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q11" s="28"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="75">
         <v>11</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C12" s="75" t="s">
         <v>3572</v>
@@ -30280,7 +30408,7 @@
         <v>3392</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>4519</v>
+        <v>4517</v>
       </c>
       <c r="H12" s="77" t="s">
         <v>3600</v>
@@ -30300,14 +30428,23 @@
       <c r="M12" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N12" s="28"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q12" s="28"/>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="75">
         <v>12</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>3573</v>
@@ -30322,7 +30459,7 @@
         <v>3367</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>4528</v>
+        <v>4526</v>
       </c>
       <c r="H13" s="77" t="s">
         <v>3600</v>
@@ -30342,14 +30479,23 @@
       <c r="M13" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N13" s="28"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="N13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q13" s="28"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="75">
         <v>13</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>3564</v>
@@ -30364,7 +30510,7 @@
         <v>3365</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>4502</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="77" t="s">
         <v>3600</v>
@@ -30384,14 +30530,23 @@
       <c r="M14" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N14" s="28"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="N14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q14" s="28"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="75">
         <v>14</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C15" s="75" t="s">
         <v>3571</v>
@@ -30400,13 +30555,13 @@
         <v>3632</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>4556</v>
+        <v>4554</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>3390</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>4517</v>
+        <v>4515</v>
       </c>
       <c r="H15" s="77" t="s">
         <v>3600</v>
@@ -30426,14 +30581,23 @@
       <c r="M15" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N15" s="28"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q15" s="28"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="75">
         <v>15</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C16" s="75" t="s">
         <v>3578</v>
@@ -30442,13 +30606,13 @@
         <v>3605</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>4555</v>
+        <v>4553</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>3398</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>4532</v>
+        <v>4530</v>
       </c>
       <c r="H16" s="77" t="s">
         <v>3600</v>
@@ -30468,14 +30632,23 @@
       <c r="M16" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N16" s="28"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q16" s="28"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="75">
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>3568</v>
@@ -30490,7 +30663,7 @@
         <v>3377</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>4509</v>
+        <v>4507</v>
       </c>
       <c r="H17" s="77" t="s">
         <v>3600</v>
@@ -30510,14 +30683,23 @@
       <c r="M17" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N17" s="28"/>
-    </row>
-    <row r="18" spans="1:14" ht="30">
+      <c r="N17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q17" s="28"/>
+    </row>
+    <row r="18" spans="1:17" ht="30">
       <c r="A18" s="75">
         <v>17</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C18" s="75" t="s">
         <v>1151</v>
@@ -30532,7 +30714,7 @@
         <v>3389</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>4516</v>
+        <v>4514</v>
       </c>
       <c r="H18" s="77" t="s">
         <v>3600</v>
@@ -30552,14 +30734,23 @@
       <c r="M18" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N18" s="28"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="75">
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C19" s="75" t="s">
         <v>3597</v>
@@ -30574,7 +30765,7 @@
         <v>3397</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>3600</v>
@@ -30594,14 +30785,23 @@
       <c r="M19" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N19" s="28"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="N19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q19" s="28"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="75">
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C20" s="75" t="s">
         <v>3570</v>
@@ -30616,7 +30816,7 @@
         <v>3382</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>4558</v>
+        <v>4556</v>
       </c>
       <c r="H20" s="77" t="s">
         <v>3600</v>
@@ -30636,14 +30836,23 @@
       <c r="M20" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N20" s="28"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q20" s="28"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="75">
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C21" s="75" t="s">
         <v>3569</v>
@@ -30658,7 +30867,7 @@
         <v>3381</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>4512</v>
+        <v>4510</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>3600</v>
@@ -30678,14 +30887,23 @@
       <c r="M21" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N21" s="28"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="N21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q21" s="28"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="75">
         <v>21</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C22" s="75" t="s">
         <v>3565</v>
@@ -30700,7 +30918,7 @@
         <v>3371</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>4505</v>
+        <v>4503</v>
       </c>
       <c r="H22" s="77" t="s">
         <v>3600</v>
@@ -30720,14 +30938,23 @@
       <c r="M22" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N22" s="28"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="N22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q22" s="28"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="75">
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C23" s="75" t="s">
         <v>3567</v>
@@ -30742,7 +30969,7 @@
         <v>3376</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>4508</v>
+        <v>4506</v>
       </c>
       <c r="H23" s="77" t="s">
         <v>3600</v>
@@ -30762,14 +30989,23 @@
       <c r="M23" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N23" s="28"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="N23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q23" s="28"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="75">
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C24" s="75" t="s">
         <v>712</v>
@@ -30784,7 +31020,7 @@
         <v>712</v>
       </c>
       <c r="G24" s="76" t="s">
-        <v>4514</v>
+        <v>4512</v>
       </c>
       <c r="H24" s="77" t="s">
         <v>3600</v>
@@ -30804,14 +31040,23 @@
       <c r="M24" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N24" s="28"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="N24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q24" s="28"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="75">
         <v>24</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>321</v>
@@ -30826,7 +31071,7 @@
         <v>3378</v>
       </c>
       <c r="G25" s="76" t="s">
-        <v>4510</v>
+        <v>4508</v>
       </c>
       <c r="H25" s="77" t="s">
         <v>3600</v>
@@ -30846,14 +31091,23 @@
       <c r="M25" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N25" s="28"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="N25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q25" s="28"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="75">
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C26" s="75" t="s">
         <v>3584</v>
@@ -30868,7 +31122,7 @@
         <v>3379</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="H26" s="77" t="s">
         <v>3600</v>
@@ -30888,14 +31142,23 @@
       <c r="M26" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N26" s="28"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="N26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q26" s="28"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="75">
         <v>26</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C27" s="75" t="s">
         <v>562</v>
@@ -30910,7 +31173,7 @@
         <v>3387</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>4513</v>
+        <v>4511</v>
       </c>
       <c r="H27" s="77" t="s">
         <v>3600</v>
@@ -30930,14 +31193,23 @@
       <c r="M27" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N27" s="28"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="N27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q27" s="28"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="75">
         <v>27</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C28" s="75" t="s">
         <v>42</v>
@@ -30952,7 +31224,7 @@
         <v>3363</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>4499</v>
+        <v>4497</v>
       </c>
       <c r="H28" s="77" t="s">
         <v>3600</v>
@@ -30972,14 +31244,23 @@
       <c r="M28" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N28" s="28"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="N28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q28" s="28"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="75">
         <v>28</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>3662</v>
@@ -30994,7 +31275,7 @@
         <v>3369</v>
       </c>
       <c r="G29" s="76" t="s">
-        <v>4504</v>
+        <v>4502</v>
       </c>
       <c r="H29" s="77" t="s">
         <v>3600</v>
@@ -31014,14 +31295,23 @@
       <c r="M29" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N29" s="28"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="N29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q29" s="28"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="75">
         <v>29</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C30" s="75" t="s">
         <v>3576</v>
@@ -31036,7 +31326,7 @@
         <v>3372</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>4507</v>
+        <v>4505</v>
       </c>
       <c r="H30" s="77" t="s">
         <v>3600</v>
@@ -31056,14 +31346,23 @@
       <c r="M30" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N30" s="28"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="N30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q30" s="28"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="75">
         <v>30</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C31" s="75" t="s">
         <v>1944</v>
@@ -31078,7 +31377,7 @@
         <v>3370</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>4506</v>
+        <v>4504</v>
       </c>
       <c r="H31" s="77" t="s">
         <v>3600</v>
@@ -31098,14 +31397,23 @@
       <c r="M31" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N31" s="28"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="N31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q31" s="28"/>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="75">
         <v>31</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C32" s="75" t="s">
         <v>3574</v>
@@ -31120,7 +31428,7 @@
         <v>3368</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>4503</v>
+        <v>4501</v>
       </c>
       <c r="H32" s="77" t="s">
         <v>3600</v>
@@ -31140,14 +31448,23 @@
       <c r="M32" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N32" s="28"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="N32" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O32" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P32" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q32" s="28"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="75">
         <v>32</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C33" s="75" t="s">
         <v>3580</v>
@@ -31162,7 +31479,7 @@
         <v>3396</v>
       </c>
       <c r="G33" s="76" t="s">
-        <v>4521</v>
+        <v>4519</v>
       </c>
       <c r="H33" s="77" t="s">
         <v>3600</v>
@@ -31182,14 +31499,23 @@
       <c r="M33" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N33" s="28"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="N33" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O33" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P33" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q33" s="28"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="75">
         <v>33</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C34" s="75" t="s">
         <v>3595</v>
@@ -31204,7 +31530,7 @@
         <v>3391</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="H34" s="77" t="s">
         <v>3600</v>
@@ -31224,14 +31550,23 @@
       <c r="M34" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N34" s="28"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="N34" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O34" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P34" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q34" s="28"/>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="75">
         <v>34</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C35" s="75" t="s">
         <v>3598</v>
@@ -31246,7 +31581,7 @@
         <v>3399</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>4501</v>
+        <v>4499</v>
       </c>
       <c r="H35" s="77" t="s">
         <v>3600</v>
@@ -31266,14 +31601,23 @@
       <c r="M35" s="77" t="s">
         <v>3600</v>
       </c>
-      <c r="N35" s="28"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="N35" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O35" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P35" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q35" s="28"/>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="79">
         <v>35</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C36" s="79" t="s">
         <v>3592</v>
@@ -31288,19 +31632,19 @@
         <v>3385</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>4524</v>
+        <v>4522</v>
       </c>
       <c r="H36" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I36" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J36" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K36" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L36" s="81" t="s">
         <v>3600</v>
@@ -31308,14 +31652,23 @@
       <c r="M36" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N36" s="28"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="N36" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O36" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P36" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q36" s="28"/>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="79">
         <v>36</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C37" s="79" t="s">
         <v>3563</v>
@@ -31330,19 +31683,19 @@
         <v>3366</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>4525</v>
+        <v>4523</v>
       </c>
       <c r="H37" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I37" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J37" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K37" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L37" s="81" t="s">
         <v>3600</v>
@@ -31350,14 +31703,23 @@
       <c r="M37" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N37" s="28"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="N37" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O37" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P37" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q37" s="28"/>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="79">
         <v>37</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C38" s="79" t="s">
         <v>3589</v>
@@ -31372,19 +31734,19 @@
         <v>3386</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>4526</v>
+        <v>4524</v>
       </c>
       <c r="H38" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I38" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J38" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K38" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L38" s="81" t="s">
         <v>3600</v>
@@ -31392,14 +31754,23 @@
       <c r="M38" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N38" s="28"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="N38" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O38" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P38" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="Q38" s="28"/>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" s="79">
         <v>38</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C39" s="79" t="s">
         <v>3566</v>
@@ -31414,19 +31785,19 @@
         <v>3373</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>4523</v>
+        <v>4521</v>
       </c>
       <c r="H39" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I39" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J39" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K39" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L39" s="81" t="s">
         <v>3600</v>
@@ -31434,17 +31805,26 @@
       <c r="M39" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N39" s="28"/>
-    </row>
-    <row r="40" spans="1:14" ht="30">
+      <c r="N39" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O39" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P39" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" spans="1:17" ht="30">
       <c r="A40" s="79">
         <v>39</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>4559</v>
+        <v>4557</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>3640</v>
@@ -31456,19 +31836,19 @@
         <v>3641</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>4543</v>
+        <v>4541</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I40" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J40" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K40" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L40" s="81" t="s">
         <v>3600</v>
@@ -31476,14 +31856,23 @@
       <c r="M40" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N40" s="28"/>
-    </row>
-    <row r="41" spans="1:14" ht="30">
+      <c r="N40" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O40" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P40" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q40" s="28"/>
+    </row>
+    <row r="41" spans="1:17" ht="30">
       <c r="A41" s="79">
         <v>40</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C41" s="79" t="s">
         <v>3579</v>
@@ -31498,19 +31887,19 @@
         <v>3645</v>
       </c>
       <c r="G41" s="79" t="s">
-        <v>4534</v>
+        <v>4532</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I41" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J41" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K41" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L41" s="81" t="s">
         <v>3600</v>
@@ -31518,14 +31907,23 @@
       <c r="M41" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N41" s="28"/>
-    </row>
-    <row r="42" spans="1:14" ht="30">
+      <c r="N41" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O41" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P41" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q41" s="28"/>
+    </row>
+    <row r="42" spans="1:17" ht="30">
       <c r="A42" s="79">
         <v>41</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C42" s="79" t="s">
         <v>3583</v>
@@ -31538,19 +31936,19 @@
         <v>3647</v>
       </c>
       <c r="G42" s="80" t="s">
-        <v>4535</v>
+        <v>4533</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I42" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K42" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L42" s="81" t="s">
         <v>3600</v>
@@ -31558,14 +31956,23 @@
       <c r="M42" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N42" s="28"/>
-    </row>
-    <row r="43" spans="1:14" ht="30">
+      <c r="N42" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O42" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P42" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q42" s="28"/>
+    </row>
+    <row r="43" spans="1:17" ht="30">
       <c r="A43" s="79">
         <v>42</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C43" s="79" t="s">
         <v>3585</v>
@@ -31580,19 +31987,19 @@
         <v>3648</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="H43" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I43" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J43" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K43" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L43" s="81" t="s">
         <v>3600</v>
@@ -31600,14 +32007,23 @@
       <c r="M43" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N43" s="28"/>
-    </row>
-    <row r="44" spans="1:14" ht="30">
+      <c r="N43" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O43" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P43" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q43" s="28"/>
+    </row>
+    <row r="44" spans="1:17" ht="30">
       <c r="A44" s="79">
         <v>43</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C44" s="79" t="s">
         <v>3586</v>
@@ -31622,19 +32038,19 @@
         <v>3652</v>
       </c>
       <c r="G44" s="80" t="s">
-        <v>4537</v>
+        <v>4535</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I44" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J44" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K44" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L44" s="81" t="s">
         <v>3600</v>
@@ -31642,14 +32058,23 @@
       <c r="M44" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N44" s="28"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="N44" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O44" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P44" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q44" s="28"/>
+    </row>
+    <row r="45" spans="1:17">
       <c r="A45" s="79">
         <v>44</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C45" s="79" t="s">
         <v>3587</v>
@@ -31664,19 +32089,19 @@
         <v>3663</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="H45" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I45" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J45" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K45" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>3600</v>
@@ -31684,14 +32109,23 @@
       <c r="M45" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N45" s="28"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="N45" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O45" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P45" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q45" s="28"/>
+    </row>
+    <row r="46" spans="1:17">
       <c r="A46" s="79">
         <v>45</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C46" s="79" t="s">
         <v>3588</v>
@@ -31706,19 +32140,19 @@
         <v>3664</v>
       </c>
       <c r="G46" s="80" t="s">
-        <v>4539</v>
+        <v>4537</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I46" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J46" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K46" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>3600</v>
@@ -31726,14 +32160,23 @@
       <c r="M46" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N46" s="28"/>
-    </row>
-    <row r="47" spans="1:14" ht="30">
+      <c r="N46" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O46" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P46" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q46" s="28"/>
+    </row>
+    <row r="47" spans="1:17" ht="30">
       <c r="A47" s="79">
         <v>46</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C47" s="79" t="s">
         <v>3593</v>
@@ -31748,19 +32191,19 @@
         <v>3657</v>
       </c>
       <c r="G47" s="80" t="s">
-        <v>4540</v>
+        <v>4538</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I47" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J47" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K47" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L47" s="81" t="s">
         <v>3600</v>
@@ -31768,14 +32211,23 @@
       <c r="M47" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N47" s="28"/>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="N47" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O47" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P47" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q47" s="28"/>
+    </row>
+    <row r="48" spans="1:17">
       <c r="A48" s="79">
         <v>47</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C48" s="79" t="s">
         <v>3575</v>
@@ -31791,16 +32243,16 @@
       </c>
       <c r="G48" s="80"/>
       <c r="H48" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I48" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J48" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L48" s="81" t="s">
         <v>3600</v>
@@ -31808,14 +32260,23 @@
       <c r="M48" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N48" s="28"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="N48" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O48" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P48" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q48" s="28"/>
+    </row>
+    <row r="49" spans="1:17">
       <c r="A49" s="79">
         <v>48</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C49" s="79" t="s">
         <v>712</v>
@@ -31830,19 +32291,19 @@
         <v>3659</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>4541</v>
+        <v>4539</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I49" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L49" s="81" t="s">
         <v>3600</v>
@@ -31850,14 +32311,23 @@
       <c r="M49" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N49" s="28"/>
-    </row>
-    <row r="50" spans="1:14" ht="30">
+      <c r="N49" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O49" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P49" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q49" s="28"/>
+    </row>
+    <row r="50" spans="1:17" ht="30">
       <c r="A50" s="79">
         <v>49</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C50" s="79" t="s">
         <v>3596</v>
@@ -31872,19 +32342,19 @@
         <v>3661</v>
       </c>
       <c r="G50" s="80" t="s">
-        <v>4542</v>
+        <v>4540</v>
       </c>
       <c r="H50" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I50" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J50" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K50" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L50" s="81" t="s">
         <v>3600</v>
@@ -31892,41 +32362,50 @@
       <c r="M50" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N50" s="28"/>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="N50" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O50" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P50" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q50" s="28"/>
+    </row>
+    <row r="51" spans="1:17">
       <c r="A51" s="79">
         <v>50</v>
       </c>
       <c r="B51" s="79" t="s">
+        <v>4468</v>
+      </c>
+      <c r="C51" s="79" t="s">
         <v>4470</v>
       </c>
-      <c r="C51" s="79" t="s">
-        <v>4472</v>
-      </c>
       <c r="D51" s="79" t="s">
-        <v>4549</v>
+        <v>4547</v>
       </c>
       <c r="E51" s="79" t="s">
         <v>3654</v>
       </c>
       <c r="F51" s="80" t="s">
+        <v>4548</v>
+      </c>
+      <c r="G51" s="80" t="s">
         <v>4550</v>
       </c>
-      <c r="G51" s="80" t="s">
-        <v>4552</v>
-      </c>
       <c r="H51" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I51" s="81" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="J51" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K51" s="81" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="L51" s="81" t="s">
         <v>3600</v>
@@ -31934,227 +32413,281 @@
       <c r="M51" s="81" t="s">
         <v>3600</v>
       </c>
-      <c r="N51" s="28"/>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="N51" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O51" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P51" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q51" s="28"/>
+    </row>
+    <row r="52" spans="1:17">
       <c r="A52" s="25">
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>4477</v>
+        <v>4475</v>
       </c>
       <c r="D52" s="25" t="s">
+        <v>4481</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F52" s="27" t="s">
         <v>4483</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>4485</v>
-      </c>
       <c r="G52" s="36" t="s">
-        <v>4529</v>
+        <v>4527</v>
       </c>
       <c r="H52" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I52" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K52" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L52" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M52" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N52" s="28"/>
-    </row>
-    <row r="53" spans="1:14">
+        <v>4471</v>
+      </c>
+      <c r="N52" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O52" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P52" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q52" s="28"/>
+    </row>
+    <row r="53" spans="1:17">
       <c r="A53" s="25">
         <v>52</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>4476</v>
+        <v>4474</v>
       </c>
       <c r="D53" s="25" t="s">
+        <v>4482</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F53" s="27" t="s">
         <v>4484</v>
       </c>
-      <c r="E53" s="25" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>4486</v>
-      </c>
       <c r="G53" s="36" t="s">
-        <v>4531</v>
+        <v>4529</v>
       </c>
       <c r="H53" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L53" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M53" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N53" s="28"/>
-    </row>
-    <row r="54" spans="1:14">
+        <v>4471</v>
+      </c>
+      <c r="N53" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O53" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P53" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q53" s="28"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="25">
         <v>53</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>4478</v>
+        <v>4476</v>
       </c>
       <c r="D54" s="25" t="s">
+        <v>4485</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F54" s="27" t="s">
         <v>4487</v>
       </c>
-      <c r="E54" s="25" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F54" s="27" t="s">
+      <c r="G54" s="36" t="s">
         <v>4489</v>
       </c>
-      <c r="G54" s="36" t="s">
-        <v>4491</v>
-      </c>
       <c r="H54" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I54" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L54" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M54" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="1:14">
+        <v>4471</v>
+      </c>
+      <c r="N54" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O54" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P54" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q54" s="28"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="25">
         <v>54</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>4479</v>
+        <v>4477</v>
       </c>
       <c r="D55" s="25" t="s">
+        <v>4486</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F55" s="27" t="s">
         <v>4488</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>4557</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>4490</v>
-      </c>
       <c r="G55" s="36" t="s">
-        <v>4530</v>
+        <v>4528</v>
       </c>
       <c r="H55" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I55" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J55" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L55" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M55" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N55" s="28"/>
-    </row>
-    <row r="56" spans="1:14" ht="30">
+        <v>4471</v>
+      </c>
+      <c r="N55" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O55" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P55" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q55" s="28"/>
+    </row>
+    <row r="56" spans="1:17" ht="30">
       <c r="A56" s="25">
         <v>55</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>4475</v>
+        <v>4473</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>4548</v>
+        <v>4546</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>4551</v>
+        <v>4549</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>4546</v>
+        <v>4544</v>
       </c>
       <c r="H56" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I56" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J56" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K56" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L56" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M56" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N56" s="28"/>
-    </row>
-    <row r="57" spans="1:14">
+        <v>4471</v>
+      </c>
+      <c r="N56" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O56" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P56" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q56" s="28"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="25">
         <v>56</v>
       </c>
       <c r="B57" s="25" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C57" s="25" t="s">
         <v>4469</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>4471</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>3667</v>
@@ -32166,76 +32699,94 @@
         <v>3380</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>4533</v>
+        <v>4531</v>
       </c>
       <c r="H57" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J57" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K57" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L57" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M57" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N57" s="28"/>
-    </row>
-    <row r="58" spans="1:14" ht="30">
+        <v>4471</v>
+      </c>
+      <c r="N57" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O57" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P57" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q57" s="28"/>
+    </row>
+    <row r="58" spans="1:17" ht="30">
       <c r="A58" s="25">
         <v>57</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>4470</v>
+        <v>4468</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>4474</v>
+        <v>4472</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>4547</v>
+        <v>4545</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>4557</v>
+        <v>4555</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>4545</v>
+        <v>4543</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>4544</v>
+        <v>4542</v>
       </c>
       <c r="H58" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J58" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K58" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L58" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M58" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="N58" s="28"/>
-    </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1">
+        <v>4471</v>
+      </c>
+      <c r="N58" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O58" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="P58" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q58" s="28"/>
+    </row>
+    <row r="59" spans="1:17" ht="15.75" customHeight="1">
       <c r="A59" s="25">
         <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>3591</v>
@@ -32250,37 +32801,46 @@
         <v>3384</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>4527</v>
+        <v>4525</v>
       </c>
       <c r="H59" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I59" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J59" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="K59" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L59" s="57" t="s">
-        <v>4473</v>
+        <v>3600</v>
       </c>
       <c r="M59" s="57" t="s">
-        <v>4473</v>
-      </c>
-      <c r="N59" s="28"/>
-    </row>
-    <row r="60" spans="1:14">
+        <v>4471</v>
+      </c>
+      <c r="N59" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="O59" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="P59" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q59" s="28"/>
+    </row>
+    <row r="60" spans="1:17">
       <c r="A60" s="25">
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>3626</v>
@@ -32289,51 +32849,60 @@
         <v>3654</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>4554</v>
+        <v>4552</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I60" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="J60" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="K60" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="L60" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="M60" s="57" t="s">
-        <v>4473</v>
-      </c>
-      <c r="N60" s="28"/>
-    </row>
-    <row r="62" spans="1:14">
-      <c r="N62" s="28"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" s="28"/>
+        <v>4471</v>
+      </c>
+      <c r="N60" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="O60" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="P60" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="Q60" s="28"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="Q62" s="28"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="Q63" s="28"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="Q64" s="28"/>
+    </row>
+    <row r="65" spans="17:17">
+      <c r="Q65" s="28"/>
+    </row>
+    <row r="66" spans="17:17">
+      <c r="Q66" s="28"/>
+    </row>
+    <row r="67" spans="17:17">
+      <c r="Q67" s="28"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O67">
     <sortCondition ref="A1:A67"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32363,22 +32932,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3781</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>3782</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3783</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -32390,7 +32959,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -32410,13 +32979,13 @@
         <v>489</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H2" s="54" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="I2" s="54" t="s">
         <v>3445</v>
@@ -32449,10 +33018,10 @@
         <v>3689</v>
       </c>
       <c r="H3" s="54" t="s">
+        <v>3842</v>
+      </c>
+      <c r="I3" s="54" t="s">
         <v>3844</v>
-      </c>
-      <c r="I3" s="54" t="s">
-        <v>3846</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32473,7 +33042,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>3626</v>
@@ -32482,10 +33051,10 @@
         <v>3689</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>3842</v>
+        <v>3840</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>3847</v>
+        <v>3845</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32506,10 +33075,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>3689</v>
@@ -32518,7 +33087,7 @@
         <v>3599</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="J5" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32539,10 +33108,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="54" t="s">
-        <v>3859</v>
+        <v>3857</v>
       </c>
       <c r="F6" s="54" t="s">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>3689</v>
@@ -32551,7 +33120,7 @@
         <v>3599</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>3849</v>
+        <v>3847</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32572,10 +33141,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>3858</v>
+        <v>3856</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>3857</v>
+        <v>3855</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>3689</v>
@@ -32584,7 +33153,7 @@
         <v>3599</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>3850</v>
+        <v>3848</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32605,19 +33174,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="J8" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32638,19 +33207,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>3856</v>
+        <v>3854</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>3852</v>
+        <v>3850</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>3861</v>
+        <v>3859</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="J9" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32671,19 +33240,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>3845</v>
+        <v>3843</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>3854</v>
+        <v>3852</v>
       </c>
       <c r="J10" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32704,19 +33273,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>3853</v>
+        <v>3851</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="J11" s="64" t="str">
         <f t="shared" si="0"/>
@@ -32734,10 +33303,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>3809</v>
+        <v>3807</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>3689</v>
@@ -32776,10 +33345,10 @@
         <v>3626</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>3862</v>
+        <v>3860</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>3855</v>
+        <v>3853</v>
       </c>
       <c r="J13" s="54" t="str">
         <f t="shared" si="0"/>
@@ -32800,7 +33369,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>3689</v>
@@ -32832,10 +33401,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68172C7A-674A-4361-9F61-7935C1F5ACCA}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32848,11 +33417,13 @@
     <col min="6" max="6" width="15.85546875" style="25" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="25" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" style="25" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="25"/>
+    <col min="9" max="10" width="13.5703125" style="25" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="25" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45">
+    <row r="1" spans="1:12" ht="45">
       <c r="A1" s="60" t="s">
         <v>2856</v>
       </c>
@@ -32871,17 +33442,26 @@
       <c r="F1" s="52" t="s">
         <v>3400</v>
       </c>
-      <c r="G1" s="56" t="s">
-        <v>3734</v>
-      </c>
-      <c r="H1" s="56" t="s">
-        <v>3735</v>
-      </c>
-      <c r="I1" s="59" t="s">
+      <c r="G1" s="86" t="s">
+        <v>4560</v>
+      </c>
+      <c r="H1" s="86" t="s">
+        <v>4561</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>4563</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>3873</v>
+      </c>
+      <c r="K1" s="59" t="s">
         <v>3733</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="L1" s="59" t="s">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="75">
         <v>1</v>
       </c>
@@ -32909,8 +33489,17 @@
       <c r="I2" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="75">
         <f>A2+1</f>
         <v>2</v>
@@ -32939,8 +33528,17 @@
       <c r="I3" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="75">
         <f t="shared" ref="A4:A37" si="0">A3+1</f>
         <v>3</v>
@@ -32969,8 +33567,17 @@
       <c r="I4" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="75">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -32999,8 +33606,17 @@
       <c r="I5" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L5" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="75">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -33029,8 +33645,17 @@
       <c r="I6" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L6" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="75">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -33059,8 +33684,17 @@
       <c r="I7" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L7" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="75">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -33089,8 +33723,17 @@
       <c r="I8" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L8" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="75">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -33119,8 +33762,17 @@
       <c r="I9" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="75">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -33149,8 +33801,17 @@
       <c r="I10" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L10" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="75">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -33179,8 +33840,17 @@
       <c r="I11" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L11" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="75">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -33209,8 +33879,17 @@
       <c r="I12" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K12" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L12" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="75">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -33239,8 +33918,17 @@
       <c r="I13" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K13" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L13" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="75">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -33269,8 +33957,17 @@
       <c r="I14" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K14" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L14" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="75">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -33299,8 +33996,17 @@
       <c r="I15" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K15" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L15" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="75">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -33329,8 +34035,17 @@
       <c r="I16" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K16" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L16" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="75">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -33359,8 +34074,17 @@
       <c r="I17" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K17" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="75">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -33389,8 +34113,17 @@
       <c r="I18" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L18" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="75">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -33419,8 +34152,17 @@
       <c r="I19" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K19" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L19" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="75">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -33449,8 +34191,17 @@
       <c r="I20" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="J20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K20" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L20" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="75">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -33479,8 +34230,17 @@
       <c r="I21" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K21" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L21" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="75">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -33509,8 +34269,17 @@
       <c r="I22" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L22" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="75">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -33539,8 +34308,17 @@
       <c r="I23" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K23" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L23" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="75">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -33569,8 +34347,17 @@
       <c r="I24" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K24" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L24" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="75">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -33599,8 +34386,17 @@
       <c r="I25" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L25" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="75">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -33629,8 +34425,17 @@
       <c r="I26" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K26" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L26" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="75">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -33659,8 +34464,17 @@
       <c r="I27" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="J27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K27" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L27" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="75">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -33689,8 +34503,17 @@
       <c r="I28" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K28" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L28" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="75">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -33719,8 +34542,17 @@
       <c r="I29" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K29" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L29" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="75">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -33749,8 +34581,17 @@
       <c r="I30" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K30" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L30" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="75">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -33779,8 +34620,17 @@
       <c r="I31" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K31" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L31" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="79">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -33801,16 +34651,25 @@
         <v>3443</v>
       </c>
       <c r="G32" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H32" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>4471</v>
+      </c>
+      <c r="J32" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K32" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L32" s="81" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="79">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -33831,16 +34690,25 @@
         <v>3410</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H33" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I33" s="81" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>4471</v>
+      </c>
+      <c r="J33" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K33" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L33" s="81" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="79">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -33861,16 +34729,25 @@
         <v>3414</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H34" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I34" s="81" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>4471</v>
+      </c>
+      <c r="J34" s="81" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K34" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L34" s="81" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="25">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -33891,22 +34768,31 @@
         <v>3440</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>4471</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K35" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L35" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="25">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="C36" s="25" t="s">
         <v>3689</v>
@@ -33921,16 +34807,25 @@
         <v>3446</v>
       </c>
       <c r="G36" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I36" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>4471</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K36" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L36" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="25">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -33951,20 +34846,30 @@
         <v>3448</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>4473</v>
+        <v>4471</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L37" s="57" t="s">
+        <v>4471</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K31">
     <sortCondition ref="A1:A31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33990,22 +34895,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3781</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>3782</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3783</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -34017,7 +34922,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -34037,16 +34942,16 @@
         <v>489</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H2" s="64" t="s">
         <v>3733</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>3807</v>
+        <v>3805</v>
       </c>
       <c r="J2" s="64" t="str">
         <f t="shared" ref="J2:J9" si="0">"§"&amp;A2&amp;"."&amp;B2&amp;"."&amp;C2&amp;IF(ISBLANK(D2),"","."&amp;D2)</f>
@@ -34073,13 +34978,13 @@
         <v>3687</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>3813</v>
+        <v>3811</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -34100,19 +35005,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="64" t="s">
+        <v>3812</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>3866</v>
+      </c>
+      <c r="G4" s="64" t="s">
+        <v>3813</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>3874</v>
+      </c>
+      <c r="I4" s="64" t="s">
         <v>3814</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>3868</v>
-      </c>
-      <c r="G4" s="64" t="s">
-        <v>3815</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>3876</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>3816</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -34133,16 +35038,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>3815</v>
+        <v>3813</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>3733</v>
@@ -34166,19 +35071,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>3875</v>
+        <v>3873</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -34199,19 +35104,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -34229,16 +35134,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>3874</v>
+        <v>3872</v>
       </c>
       <c r="I8" s="64" t="s">
         <v>3517</v>
@@ -34265,13 +35170,13 @@
         <v>3733</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>3812</v>
+        <v>3810</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>3687</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>3873</v>
+        <v>3871</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>3439</v>
@@ -43013,22 +43918,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3778</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3781</v>
       </c>
-      <c r="C1" s="65" t="s">
-        <v>3782</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3783</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3811</v>
+        <v>3809</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3810</v>
+        <v>3808</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -43040,7 +43945,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -43057,16 +43962,16 @@
         <v>603</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="J2" s="64" t="str">
         <f t="shared" ref="J2:J24" si="0">"§"&amp;A2&amp;"."&amp;B2&amp;"."&amp;C2&amp;IF(ISBLANK(D2),"","."&amp;D2)</f>
@@ -43087,16 +43992,16 @@
         <v>603</v>
       </c>
       <c r="F3" s="64" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>3825</v>
+        <v>3823</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43117,16 +44022,16 @@
         <v>603</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>3767</v>
+        <v>3765</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>3797</v>
+        <v>3795</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43147,16 +44052,16 @@
         <v>603</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>3834</v>
+        <v>3832</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>3798</v>
+        <v>3796</v>
       </c>
       <c r="J5" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43177,16 +44082,16 @@
         <v>603</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>3802</v>
+        <v>3800</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43207,16 +44112,16 @@
         <v>603</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43237,16 +44142,16 @@
         <v>603</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>3800</v>
+        <v>3798</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="J8" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43267,16 +44172,16 @@
         <v>603</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>3777</v>
+        <v>3775</v>
       </c>
       <c r="J9" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43297,19 +44202,19 @@
         <v>11</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G10" s="64" t="s">
+        <v>3772</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>3828</v>
+      </c>
+      <c r="I10" s="64" t="s">
         <v>3774</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>3830</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>3776</v>
       </c>
       <c r="J10" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43330,19 +44235,19 @@
         <v>10</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>3785</v>
+        <v>3783</v>
       </c>
       <c r="J11" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43363,19 +44268,19 @@
         <v>9</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="J12" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43396,19 +44301,19 @@
         <v>8</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>3833</v>
+        <v>3831</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>3787</v>
+        <v>3785</v>
       </c>
       <c r="J13" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43429,19 +44334,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>3836</v>
+        <v>3834</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="J14" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43462,19 +44367,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>3804</v>
+        <v>3802</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="J15" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43495,19 +44400,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>3788</v>
+        <v>3786</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>3775</v>
+        <v>3773</v>
       </c>
       <c r="J16" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43528,19 +44433,19 @@
         <v>37</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>3778</v>
+        <v>3776</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>3774</v>
+        <v>3772</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="J17" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43561,19 +44466,19 @@
         <v>36</v>
       </c>
       <c r="E18" s="64" t="s">
+        <v>3782</v>
+      </c>
+      <c r="F18" s="64" t="s">
         <v>3784</v>
       </c>
-      <c r="F18" s="64" t="s">
-        <v>3786</v>
-      </c>
       <c r="G18" s="64" t="s">
-        <v>3792</v>
+        <v>3790</v>
       </c>
       <c r="H18" s="64" t="s">
-        <v>3838</v>
+        <v>3836</v>
       </c>
       <c r="I18" s="64" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="J18" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43594,19 +44499,19 @@
         <v>35</v>
       </c>
       <c r="E19" s="64" t="s">
-        <v>3768</v>
+        <v>3766</v>
       </c>
       <c r="F19" s="64" t="s">
-        <v>3773</v>
+        <v>3771</v>
       </c>
       <c r="G19" s="64" t="s">
-        <v>3801</v>
+        <v>3799</v>
       </c>
       <c r="H19" s="64" t="s">
-        <v>3769</v>
+        <v>3767</v>
       </c>
       <c r="I19" s="64" t="s">
-        <v>3794</v>
+        <v>3792</v>
       </c>
       <c r="J19" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43627,16 +44532,16 @@
         <v>34</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>3764</v>
+        <v>3762</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>3772</v>
+        <v>3770</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>3763</v>
+        <v>3761</v>
       </c>
       <c r="I20" s="64" t="s">
         <v>3555</v>
@@ -43660,13 +44565,13 @@
         <v>603</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>3799</v>
+        <v>3797</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="I21" s="64" t="s">
         <v>2462</v>
@@ -43690,16 +44595,16 @@
         <v>2462</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="J22" s="66" t="str">
         <f>"§"&amp;A22&amp;"."&amp;B22&amp;"."&amp;C22&amp;IF(ISBLANK(D22),"","."&amp;D22)</f>
@@ -43723,16 +44628,16 @@
         <v>2462</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>3840</v>
+        <v>3838</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="J23" s="64" t="str">
         <f>"§"&amp;A23&amp;"."&amp;B23&amp;"."&amp;C23&amp;IF(ISBLANK(D23),"","."&amp;D23)</f>
@@ -43750,19 +44655,19 @@
         <v>47</v>
       </c>
       <c r="E24" s="66" t="s">
+        <v>3868</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>3789</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>3803</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>3869</v>
+      </c>
+      <c r="I24" s="64" t="s">
         <v>3870</v>
-      </c>
-      <c r="F24" s="64" t="s">
-        <v>3791</v>
-      </c>
-      <c r="G24" s="66" t="s">
-        <v>3805</v>
-      </c>
-      <c r="H24" s="66" t="s">
-        <v>3871</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>3872</v>
       </c>
       <c r="J24" s="64" t="str">
         <f t="shared" si="0"/>
@@ -43780,19 +44685,19 @@
         <v>16</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>3805</v>
+        <v>3803</v>
       </c>
       <c r="G25" s="66" t="s">
-        <v>3864</v>
+        <v>3862</v>
       </c>
       <c r="H25" s="66" t="s">
-        <v>3877</v>
+        <v>3875</v>
       </c>
       <c r="I25" s="66" t="s">
-        <v>3865</v>
+        <v>3863</v>
       </c>
       <c r="J25" s="66" t="str">
         <f>"§"&amp;A25&amp;"."&amp;B25&amp;"."&amp;C25&amp;IF(ISBLANK(D25),"","."&amp;D25)</f>
@@ -43812,441 +44717,569 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B87372D-7E3F-4CE1-9CFA-619F49901691}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="55.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="70" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="70" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="55.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="70" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="70" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="71" customFormat="1" ht="63">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="71" customFormat="1" ht="63">
+      <c r="A1" s="85" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>855</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="C1" s="61" t="s">
         <v>1274</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="D1" s="61" t="s">
         <v>1863</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="E1" s="61" t="s">
         <v>3400</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
+        <v>3762</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>3764</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="I1" s="62" t="s">
         <v>3766</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="J1" s="62" t="s">
         <v>3768</v>
       </c>
-      <c r="H1" s="62" t="s">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3628</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E2" s="69" t="s">
+        <v>3534</v>
+      </c>
+      <c r="F2" s="69"/>
+      <c r="G2" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I2" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J2" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J3" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F4" s="69"/>
+      <c r="G4" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J4" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F5" s="69"/>
+      <c r="G5" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E6" s="69" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3758</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F7" s="69"/>
+      <c r="G7" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J7" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>3548</v>
+      </c>
+      <c r="F8" s="69"/>
+      <c r="G8" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I8" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E9" s="69" t="s">
+        <v>3550</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3763</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I10" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>3557</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>3558</v>
+      </c>
+      <c r="F11" s="69"/>
+      <c r="G11" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>3735</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F12" s="69"/>
+      <c r="G12" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J12" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>3751</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>3737</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>3529</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>3530</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3628</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>3533</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>3534</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="3" t="s">
+      <c r="D13" s="69" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E13" s="69" t="s">
+        <v>3538</v>
+      </c>
+      <c r="F13" s="69"/>
+      <c r="G13" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I13" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J13" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>3752</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3738</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>3535</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>3536</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="3" t="s">
-        <v>3753</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3739</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>3537</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>3538</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="3" t="s">
-        <v>3757</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>3740</v>
       </c>
-      <c r="C6" s="69" t="s">
-        <v>3539</v>
-      </c>
-      <c r="D6" s="69" t="s">
-        <v>3540</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="3" t="s">
-        <v>3758</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>3741</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>3541</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>3542</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="3" t="s">
-        <v>3754</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>3742</v>
-      </c>
-      <c r="C8" s="69" t="s">
+      <c r="D14" s="69" t="s">
         <v>3543</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="E14" s="69" t="s">
         <v>3544</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="3" t="s">
+      <c r="F14" s="69"/>
+      <c r="G14" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I14" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J14" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>3759</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3743</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>3545</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>3546</v>
-      </c>
-      <c r="E9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>3551</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>3552</v>
+      </c>
+      <c r="F15" s="69"/>
+      <c r="G15" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J15" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>3760</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>3677</v>
-      </c>
-      <c r="C10" s="69" t="s">
-        <v>3531</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>3532</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="3" t="s">
-        <v>3755</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>3744</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>3547</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>3548</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="3" t="s">
-        <v>3756</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>3745</v>
       </c>
-      <c r="C12" s="69" t="s">
-        <v>3549</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>3550</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="3" t="s">
+      <c r="D16" s="69" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E16" s="69" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F16" s="69"/>
+      <c r="G16" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I16" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J16" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>3761</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>3746</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>3551</v>
-      </c>
-      <c r="D13" s="69" t="s">
-        <v>3552</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="3" t="s">
-        <v>3762</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>3747</v>
-      </c>
-      <c r="C14" s="69" t="s">
-        <v>3553</v>
-      </c>
-      <c r="D14" s="69" t="s">
-        <v>3554</v>
-      </c>
-      <c r="E14" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="3" t="s">
-        <v>3763</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3748</v>
-      </c>
-      <c r="C15" s="69" t="s">
+      <c r="D17" s="69" t="s">
         <v>3555</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="E17" s="69" t="s">
         <v>3556</v>
       </c>
-      <c r="E15" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="3" t="s">
-        <v>3769</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>3773</v>
-      </c>
-      <c r="C16" s="69" t="s">
-        <v>3794</v>
-      </c>
-      <c r="D16" s="69" t="s">
-        <v>3863</v>
-      </c>
-      <c r="E16" s="57"/>
-      <c r="G16" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>3749</v>
-      </c>
-      <c r="C17" s="69" t="s">
-        <v>3557</v>
-      </c>
-      <c r="D17" s="69" t="s">
-        <v>3558</v>
-      </c>
-      <c r="E17" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="3" t="s">
-        <v>3765</v>
+      <c r="F17" s="69"/>
+      <c r="G17" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="I17" s="57" t="s">
+        <v>4471</v>
+      </c>
+      <c r="J17" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75">
+      <c r="A18" s="3">
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3750</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>3559</v>
+        <v>3767</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>3771</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>3560</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="F18" s="57" t="s">
-        <v>3600</v>
-      </c>
+        <v>3792</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>3861</v>
+      </c>
+      <c r="F18" s="69"/>
       <c r="G18" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
+      </c>
+      <c r="I18" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J18" s="57" t="s">
+        <v>4471</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
-    <sortCondition ref="A1:A18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G11">
+    <sortCondition ref="B1:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44286,13 +45319,13 @@
         <v>3356</v>
       </c>
       <c r="B2" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D2" t="s">
         <v>3864</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3865</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3866</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -44300,13 +45333,13 @@
         <v>3356</v>
       </c>
       <c r="B3" t="s">
-        <v>3791</v>
+        <v>3789</v>
       </c>
       <c r="C3" t="s">
-        <v>3796</v>
+        <v>3794</v>
       </c>
       <c r="D3" t="s">
-        <v>3867</v>
+        <v>3865</v>
       </c>
     </row>
   </sheetData>
@@ -44339,24 +45372,24 @@
         <v>1863</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="D1" s="62" t="s">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>3829</v>
+        <v>3827</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>3904</v>
+        <v>3902</v>
       </c>
       <c r="B2" t="s">
-        <v>3878</v>
+        <v>3876</v>
       </c>
       <c r="C2" t="s">
-        <v>3879</v>
+        <v>3877</v>
       </c>
       <c r="D2" s="73" t="s">
         <v>3600</v>
@@ -44370,10 +45403,10 @@
         <v>3672</v>
       </c>
       <c r="B3" t="s">
-        <v>3881</v>
+        <v>3879</v>
       </c>
       <c r="C3" t="s">
-        <v>3882</v>
+        <v>3880</v>
       </c>
       <c r="D3" s="73" t="s">
         <v>3600</v>
@@ -44390,7 +45423,7 @@
         <v>3413</v>
       </c>
       <c r="C4" t="s">
-        <v>3883</v>
+        <v>3881</v>
       </c>
       <c r="D4" s="73" t="s">
         <v>3600</v>
@@ -44401,13 +45434,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="B5" t="s">
-        <v>3884</v>
+        <v>3882</v>
       </c>
       <c r="C5" t="s">
-        <v>3885</v>
+        <v>3883</v>
       </c>
       <c r="D5" s="73" t="s">
         <v>3600</v>
@@ -44418,13 +45451,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>3906</v>
+        <v>3904</v>
       </c>
       <c r="B6" t="s">
-        <v>3886</v>
+        <v>3884</v>
       </c>
       <c r="C6" t="s">
-        <v>3887</v>
+        <v>3885</v>
       </c>
       <c r="D6" s="73" t="s">
         <v>3600</v>
@@ -44435,13 +45468,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>3907</v>
+        <v>3905</v>
       </c>
       <c r="B7" t="s">
-        <v>3889</v>
+        <v>3887</v>
       </c>
       <c r="C7" t="s">
-        <v>3890</v>
+        <v>3888</v>
       </c>
       <c r="D7" s="73" t="s">
         <v>3600</v>
@@ -44455,10 +45488,10 @@
         <v>3677</v>
       </c>
       <c r="B8" t="s">
-        <v>3891</v>
+        <v>3889</v>
       </c>
       <c r="C8" t="s">
-        <v>3892</v>
+        <v>3890</v>
       </c>
       <c r="D8" s="73" t="s">
         <v>3600</v>
@@ -44469,13 +45502,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
       <c r="B9" t="s">
-        <v>3893</v>
+        <v>3891</v>
       </c>
       <c r="C9" t="s">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="D9" s="73" t="s">
         <v>3600</v>
@@ -44486,13 +45519,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>3908</v>
+        <v>3906</v>
       </c>
       <c r="B10" t="s">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="C10" t="s">
-        <v>3896</v>
+        <v>3894</v>
       </c>
       <c r="D10" s="73" t="s">
         <v>3600</v>
@@ -44503,13 +45536,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>3909</v>
+        <v>3907</v>
       </c>
       <c r="B11" t="s">
-        <v>3897</v>
+        <v>3895</v>
       </c>
       <c r="C11" t="s">
-        <v>3898</v>
+        <v>3896</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>3600</v>
@@ -44520,13 +45553,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>3803</v>
+        <v>3801</v>
       </c>
       <c r="B12" t="s">
-        <v>3806</v>
+        <v>3804</v>
       </c>
       <c r="C12" t="s">
-        <v>3899</v>
+        <v>3897</v>
       </c>
       <c r="D12" s="73" t="s">
         <v>3600</v>
@@ -44535,13 +45568,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>3910</v>
+        <v>3908</v>
       </c>
       <c r="B13" t="s">
-        <v>3900</v>
+        <v>3898</v>
       </c>
       <c r="C13" t="s">
-        <v>3901</v>
+        <v>3899</v>
       </c>
       <c r="D13" s="73" t="s">
         <v>3600</v>
@@ -44552,13 +45585,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="B14" t="s">
-        <v>3902</v>
+        <v>3900</v>
       </c>
       <c r="C14" t="s">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="D14" s="73" t="s">
         <v>3600</v>
@@ -44602,13 +45635,13 @@
         <v>1863</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>3771</v>
+        <v>3769</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>3826</v>
+        <v>3824</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>3827</v>
+        <v>3825</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -44616,13 +45649,13 @@
         <v>3707</v>
       </c>
       <c r="B2" t="s">
-        <v>3880</v>
+        <v>3878</v>
       </c>
       <c r="C2" t="s">
-        <v>3912</v>
+        <v>3910</v>
       </c>
       <c r="D2" t="s">
-        <v>3913</v>
+        <v>3911</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>3600</v>
@@ -44633,16 +45666,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3955</v>
+        <v>3953</v>
       </c>
       <c r="B3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3913</v>
+      </c>
+      <c r="D3" t="s">
         <v>3914</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3915</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3916</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>3600</v>
@@ -44653,13 +45686,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D4" t="s">
         <v>3917</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3918</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3919</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>3600</v>
@@ -44670,16 +45703,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3956</v>
+        <v>3954</v>
       </c>
       <c r="B5" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D5" t="s">
         <v>3920</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3921</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3922</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>3600</v>
@@ -44690,16 +45723,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3957</v>
+        <v>3955</v>
       </c>
       <c r="B6" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D6" t="s">
         <v>3923</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3924</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3925</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>3600</v>
@@ -44710,16 +45743,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="B7" t="s">
+        <v>3924</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3925</v>
+      </c>
+      <c r="D7" t="s">
         <v>3926</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3927</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3928</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>3600</v>
@@ -44733,13 +45766,13 @@
         <v>562</v>
       </c>
       <c r="B8" t="s">
+        <v>3927</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3928</v>
+      </c>
+      <c r="D8" t="s">
         <v>3929</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3930</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3931</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>3600</v>
@@ -44750,16 +45783,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>3960</v>
+        <v>3958</v>
       </c>
       <c r="B9" t="s">
+        <v>3930</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D9" t="s">
         <v>3932</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3933</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3934</v>
       </c>
       <c r="E9" s="73" t="s">
         <v>3600</v>
@@ -44770,16 +45803,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>3961</v>
+        <v>3959</v>
       </c>
       <c r="B10" t="s">
+        <v>3933</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3934</v>
+      </c>
+      <c r="D10" t="s">
         <v>3935</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3936</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3937</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>3600</v>
@@ -44790,16 +45823,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>3962</v>
+        <v>3960</v>
       </c>
       <c r="B11" t="s">
+        <v>3936</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3937</v>
+      </c>
+      <c r="D11" t="s">
         <v>3938</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3939</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3940</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>3600</v>
@@ -44810,13 +45843,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>3941</v>
+        <v>3939</v>
       </c>
       <c r="C12" t="s">
-        <v>3793</v>
+        <v>3791</v>
       </c>
       <c r="D12" t="s">
-        <v>3942</v>
+        <v>3940</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>3600</v>
@@ -44825,16 +45858,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>3964</v>
+        <v>3962</v>
       </c>
       <c r="B13" t="s">
+        <v>3941</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3942</v>
+      </c>
+      <c r="D13" t="s">
         <v>3943</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3944</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3945</v>
       </c>
       <c r="E13" s="73" t="s">
         <v>3600</v>
@@ -44848,13 +45881,13 @@
         <v>3729</v>
       </c>
       <c r="B14" t="s">
+        <v>3944</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3945</v>
+      </c>
+      <c r="D14" t="s">
         <v>3946</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3947</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3948</v>
       </c>
       <c r="E14" s="73" t="s">
         <v>3600</v>
@@ -44865,16 +45898,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>3963</v>
+        <v>3961</v>
       </c>
       <c r="B15" t="s">
+        <v>3947</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3948</v>
+      </c>
+      <c r="D15" t="s">
         <v>3949</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3950</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3951</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>3600</v>
@@ -44885,16 +45918,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>3958</v>
+        <v>3956</v>
       </c>
       <c r="B16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D16" t="s">
         <v>3952</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3953</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3954</v>
       </c>
       <c r="E16" s="73" t="s">
         <v>3600</v>
@@ -44940,86 +45973,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4021</v>
+        <v>4019</v>
       </c>
       <c r="B2" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D2" t="s">
         <v>3965</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3966</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3967</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4025</v>
+        <v>4023</v>
       </c>
       <c r="B3" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D3" t="s">
         <v>3968</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3969</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3970</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4026</v>
+        <v>4024</v>
       </c>
       <c r="B4" t="s">
+        <v>3969</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3970</v>
+      </c>
+      <c r="D4" t="s">
         <v>3971</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3972</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3973</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4035</v>
+        <v>4033</v>
       </c>
       <c r="B5" t="s">
-        <v>3888</v>
+        <v>3886</v>
       </c>
       <c r="C5" t="s">
-        <v>3974</v>
+        <v>3972</v>
       </c>
       <c r="D5" t="s">
-        <v>3975</v>
+        <v>3973</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4027</v>
+        <v>4025</v>
       </c>
       <c r="B6" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D6" t="s">
         <v>3976</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3977</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3978</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4022</v>
+        <v>4020</v>
       </c>
       <c r="B7" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D7" t="s">
         <v>3979</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3980</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3981</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -45030,220 +46063,220 @@
         <v>1924</v>
       </c>
       <c r="C8" t="s">
-        <v>3982</v>
+        <v>3980</v>
       </c>
       <c r="D8" t="s">
-        <v>3983</v>
+        <v>3981</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4028</v>
+        <v>4026</v>
       </c>
       <c r="B9" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D9" t="s">
         <v>3984</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3985</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3986</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4023</v>
+        <v>4021</v>
       </c>
       <c r="B10" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D10" t="s">
         <v>3987</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3988</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3989</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4029</v>
+        <v>4027</v>
       </c>
       <c r="B11" t="s">
+        <v>3988</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3989</v>
+      </c>
+      <c r="D11" t="s">
         <v>3990</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3991</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3992</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4030</v>
+        <v>4028</v>
       </c>
       <c r="B12" t="s">
+        <v>3991</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3992</v>
+      </c>
+      <c r="D12" t="s">
         <v>3993</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3994</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3995</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>3808</v>
+        <v>3806</v>
       </c>
       <c r="B13" t="s">
         <v>3516</v>
       </c>
       <c r="C13" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="D13" t="s">
-        <v>3996</v>
+        <v>3994</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4031</v>
+        <v>4029</v>
       </c>
       <c r="B14" t="s">
+        <v>3995</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3996</v>
+      </c>
+      <c r="D14" t="s">
         <v>3997</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3998</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>3843</v>
+        <v>3841</v>
       </c>
       <c r="B15" t="s">
         <v>3444</v>
       </c>
       <c r="C15" t="s">
-        <v>3848</v>
+        <v>3846</v>
       </c>
       <c r="D15" t="s">
-        <v>4000</v>
+        <v>3998</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4024</v>
+        <v>4022</v>
       </c>
       <c r="B16" t="s">
+        <v>3999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D16" t="s">
         <v>4001</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4002</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4003</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4032</v>
+        <v>4030</v>
       </c>
       <c r="B17" t="s">
+        <v>4002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D17" t="s">
         <v>4004</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4005</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>3837</v>
+        <v>3835</v>
       </c>
       <c r="B18" t="s">
-        <v>4007</v>
+        <v>4005</v>
       </c>
       <c r="C18" t="s">
-        <v>3779</v>
+        <v>3777</v>
       </c>
       <c r="D18" t="s">
-        <v>4008</v>
+        <v>4006</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>3831</v>
+        <v>3829</v>
       </c>
       <c r="B19" t="s">
-        <v>4009</v>
+        <v>4007</v>
       </c>
       <c r="C19" t="s">
-        <v>3789</v>
+        <v>3787</v>
       </c>
       <c r="D19" t="s">
-        <v>4010</v>
+        <v>4008</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>3832</v>
+        <v>3830</v>
       </c>
       <c r="B20" t="s">
-        <v>4011</v>
+        <v>4009</v>
       </c>
       <c r="C20" t="s">
-        <v>3795</v>
+        <v>3793</v>
       </c>
       <c r="D20" t="s">
-        <v>4012</v>
+        <v>4010</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="B21" t="s">
-        <v>4013</v>
+        <v>4011</v>
       </c>
       <c r="C21" t="s">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="D21" t="s">
-        <v>4014</v>
+        <v>4012</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4033</v>
+        <v>4031</v>
       </c>
       <c r="B22" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D22" t="s">
         <v>4015</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4016</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4017</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4034</v>
+        <v>4032</v>
       </c>
       <c r="B23" t="s">
+        <v>4016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4017</v>
+      </c>
+      <c r="D23" t="s">
         <v>4018</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4019</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4020</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -45251,7 +46284,7 @@
         <v>856</v>
       </c>
       <c r="B24" t="s">
-        <v>4036</v>
+        <v>4034</v>
       </c>
     </row>
   </sheetData>
@@ -45290,10 +46323,10 @@
         <v>1863</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>4332</v>
+        <v>4330</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>4037</v>
+        <v>4035</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>0</v>
@@ -45301,19 +46334,19 @@
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" s="3" t="s">
-        <v>4255</v>
+        <v>4253</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4104</v>
+        <v>4102</v>
       </c>
       <c r="D2" s="69" t="s">
-        <v>4361</v>
+        <v>4359</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>4105</v>
+        <v>4103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -45321,19 +46354,19 @@
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="3" t="s">
-        <v>4288</v>
+        <v>4286</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4188</v>
+        <v>4186</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>4396</v>
+        <v>4394</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>4189</v>
+        <v>4187</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -45344,16 +46377,16 @@
         <v>1222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>4213</v>
+        <v>4211</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>4407</v>
+        <v>4405</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>4214</v>
+        <v>4212</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -45361,62 +46394,62 @@
     </row>
     <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="3" t="s">
-        <v>4257</v>
+        <v>4255</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4108</v>
+        <v>4106</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>4363</v>
+        <v>4361</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="3" t="s">
-        <v>4258</v>
+        <v>4256</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4110</v>
+        <v>4108</v>
       </c>
       <c r="D6" s="69" t="s">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>4111</v>
+        <v>4109</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>4285</v>
+        <v>4283</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4316</v>
+        <v>4314</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>4180</v>
+        <v>4178</v>
       </c>
       <c r="D7" s="69" t="s">
-        <v>4393</v>
+        <v>4391</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>4181</v>
+        <v>4179</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -45427,73 +46460,73 @@
         <v>1832</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4217</v>
+        <v>4215</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>4218</v>
+        <v>4216</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4417</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="3" t="s">
-        <v>4238</v>
+        <v>4236</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4324</v>
+        <v>4322</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>4066</v>
+        <v>4064</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>4345</v>
+        <v>4343</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>4067</v>
+        <v>4065</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="3" t="s">
-        <v>4280</v>
+        <v>4278</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>4162</v>
+        <v>4160</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>4426</v>
+        <v>4424</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4427</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>4241</v>
+        <v>4239</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4322</v>
+        <v>4320</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>4072</v>
+        <v>4070</v>
       </c>
       <c r="D11" s="69" t="s">
-        <v>4348</v>
+        <v>4346</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>990</v>
@@ -45501,19 +46534,19 @@
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="3" t="s">
-        <v>4269</v>
+        <v>4267</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>4134</v>
+        <v>4132</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>4435</v>
+        <v>4433</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>4135</v>
+        <v>4133</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>990</v>
@@ -45521,442 +46554,442 @@
     </row>
     <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="3" t="s">
-        <v>4230</v>
+        <v>4228</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>4042</v>
+        <v>4040</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>4335</v>
+        <v>4333</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>4043</v>
+        <v>4041</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25">
       <c r="A14" s="3" t="s">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>4096</v>
+        <v>4094</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>4357</v>
+        <v>4355</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>4097</v>
+        <v>4095</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25">
       <c r="A15" s="3" t="s">
-        <v>4231</v>
+        <v>4229</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>4044</v>
+        <v>4042</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>4336</v>
+        <v>4334</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>4045</v>
+        <v>4043</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25">
       <c r="A16" s="3" t="s">
-        <v>4260</v>
+        <v>4258</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>4114</v>
+        <v>4112</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>4366</v>
+        <v>4364</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>4115</v>
+        <v>4113</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="3" t="s">
-        <v>4232</v>
+        <v>4230</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>4046</v>
+        <v>4044</v>
       </c>
       <c r="D17" s="69" t="s">
-        <v>4337</v>
+        <v>4335</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>4047</v>
+        <v>4045</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="47.25">
       <c r="A18" s="3" t="s">
-        <v>4273</v>
+        <v>4271</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>4146</v>
+        <v>4144</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>4378</v>
+        <v>4376</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>4147</v>
+        <v>4145</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63">
       <c r="A19" s="3" t="s">
-        <v>4287</v>
+        <v>4285</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>4186</v>
+        <v>4184</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>4187</v>
+        <v>4185</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
       <c r="A20" s="3" t="s">
-        <v>4289</v>
+        <v>4287</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4315</v>
+        <v>4313</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>4192</v>
+        <v>4190</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>4398</v>
+        <v>4396</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>4193</v>
+        <v>4191</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="3" t="s">
-        <v>4290</v>
+        <v>4288</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>4194</v>
+        <v>4192</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>4195</v>
+        <v>4193</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75">
       <c r="A22" s="3" t="s">
-        <v>4293</v>
+        <v>4291</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>4199</v>
+        <v>4197</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>4402</v>
+        <v>4400</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>4200</v>
+        <v>4198</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="47.25">
       <c r="A23" s="3" t="s">
-        <v>4302</v>
+        <v>4300</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>4221</v>
+        <v>4219</v>
       </c>
       <c r="D23" s="69" t="s">
-        <v>4410</v>
+        <v>4408</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>4222</v>
+        <v>4220</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="3" t="s">
-        <v>4291</v>
+        <v>4289</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4461</v>
+        <v>4459</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>4196</v>
+        <v>4194</v>
       </c>
       <c r="D24" s="69" t="s">
-        <v>4400</v>
+        <v>4398</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>4462</v>
+        <v>4460</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>4416</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>4248</v>
+        <v>4246</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4320</v>
+        <v>4318</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>4090</v>
+        <v>4088</v>
       </c>
       <c r="D25" s="69" t="s">
-        <v>4452</v>
+        <v>4450</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>4091</v>
+        <v>4089</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
       <c r="A26" s="3" t="s">
-        <v>4326</v>
+        <v>4324</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>4445</v>
+        <v>4443</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>4446</v>
+        <v>4444</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>4444</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>4329</v>
+        <v>4327</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>4330</v>
+        <v>4328</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>4441</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>4462</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>4442</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>4443</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4464</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4444</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.5">
       <c r="A28" s="3" t="s">
-        <v>4245</v>
+        <v>4243</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>4084</v>
+        <v>4082</v>
       </c>
       <c r="D28" s="69" t="s">
-        <v>4352</v>
+        <v>4350</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>4085</v>
+        <v>4083</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="3" t="s">
-        <v>4246</v>
+        <v>4244</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>4086</v>
+        <v>4084</v>
       </c>
       <c r="D29" s="69" t="s">
-        <v>4353</v>
+        <v>4351</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>4087</v>
+        <v>4085</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="3" t="s">
-        <v>4259</v>
+        <v>4257</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="D30" s="69" t="s">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>4113</v>
+        <v>4111</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="3" t="s">
-        <v>4261</v>
+        <v>4259</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>4116</v>
+        <v>4114</v>
       </c>
       <c r="D31" s="69" t="s">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>4117</v>
+        <v>4115</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="3" t="s">
-        <v>4262</v>
+        <v>4260</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>4118</v>
+        <v>4116</v>
       </c>
       <c r="D32" s="69" t="s">
-        <v>4368</v>
+        <v>4366</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>4119</v>
+        <v>4117</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="3" t="s">
-        <v>4263</v>
+        <v>4261</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>4120</v>
+        <v>4118</v>
       </c>
       <c r="D33" s="69" t="s">
-        <v>4369</v>
+        <v>4367</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>4121</v>
+        <v>4119</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="3" t="s">
-        <v>4264</v>
+        <v>4262</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>4122</v>
+        <v>4120</v>
       </c>
       <c r="D34" s="69" t="s">
-        <v>4370</v>
+        <v>4368</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>4123</v>
+        <v>4121</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>4424</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -45964,139 +46997,139 @@
         <v>373</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4459</v>
+        <v>4457</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="D35" s="69" t="s">
-        <v>4380</v>
+        <v>4378</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>4153</v>
+        <v>4151</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>4292</v>
+        <v>4290</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>4197</v>
+        <v>4195</v>
       </c>
       <c r="D36" s="69" t="s">
-        <v>4401</v>
+        <v>4399</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>4198</v>
+        <v>4196</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>4434</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5">
       <c r="A37" s="3" t="s">
-        <v>4268</v>
+        <v>4266</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4458</v>
+        <v>4456</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>4132</v>
+        <v>4130</v>
       </c>
       <c r="D37" s="69" t="s">
-        <v>4450</v>
+        <v>4448</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>4133</v>
+        <v>4131</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>4451</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="3" t="s">
-        <v>4266</v>
+        <v>4264</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>4128</v>
+        <v>4126</v>
       </c>
       <c r="D38" s="69" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>4127</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>4449</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>4129</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>4451</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="3" t="s">
-        <v>4243</v>
+        <v>4241</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>4076</v>
+        <v>4074</v>
       </c>
       <c r="D39" s="69" t="s">
-        <v>4431</v>
+        <v>4429</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>4077</v>
+        <v>4075</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
-        <v>4275</v>
+        <v>4273</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>4150</v>
+        <v>4148</v>
       </c>
       <c r="D40" s="69" t="s">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>4151</v>
+        <v>4149</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>4301</v>
+        <v>4299</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>4219</v>
+        <v>4217</v>
       </c>
       <c r="D41" s="69" t="s">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>4220</v>
+        <v>4218</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>4421</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.5">
@@ -46107,36 +47140,36 @@
         <v>1832</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>4190</v>
+        <v>4188</v>
       </c>
       <c r="D42" s="69" t="s">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>4191</v>
+        <v>4189</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.5">
       <c r="A43" s="3" t="s">
-        <v>4265</v>
+        <v>4263</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>4124</v>
+        <v>4122</v>
       </c>
       <c r="D43" s="69" t="s">
-        <v>4371</v>
+        <v>4369</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>4125</v>
+        <v>4123</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75">
@@ -46147,36 +47180,36 @@
         <v>1832</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>4126</v>
+        <v>4124</v>
       </c>
       <c r="D44" s="69" t="s">
-        <v>4372</v>
+        <v>4370</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>4127</v>
+        <v>4125</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>4428</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.5">
       <c r="A45" s="3" t="s">
-        <v>4256</v>
+        <v>4254</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>4106</v>
+        <v>4104</v>
       </c>
       <c r="D45" s="69" t="s">
-        <v>4362</v>
+        <v>4360</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>4107</v>
+        <v>4105</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.5">
@@ -46187,16 +47220,16 @@
         <v>1832</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>4184</v>
+        <v>4182</v>
       </c>
       <c r="D46" s="69" t="s">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>4185</v>
+        <v>4183</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>4429</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.5">
@@ -46207,56 +47240,56 @@
         <v>1832</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>4052</v>
+        <v>4050</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>4433</v>
+        <v>4431</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>4053</v>
+        <v>4051</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.5">
       <c r="A48" s="3" t="s">
-        <v>4242</v>
+        <v>4240</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>4074</v>
+        <v>4072</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>4349</v>
+        <v>4347</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="31.5">
       <c r="A49" s="3" t="s">
-        <v>4254</v>
+        <v>4252</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>4102</v>
+        <v>4100</v>
       </c>
       <c r="D49" s="69" t="s">
-        <v>4360</v>
+        <v>4358</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>4103</v>
+        <v>4101</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75">
@@ -46264,156 +47297,156 @@
         <v>1089</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>4144</v>
+        <v>4142</v>
       </c>
       <c r="D50" s="69" t="s">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>4145</v>
+        <v>4143</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>4414</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.5">
       <c r="A51" s="3" t="s">
-        <v>4250</v>
+        <v>4248</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>4094</v>
+        <v>4092</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>4356</v>
+        <v>4354</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>4095</v>
+        <v>4093</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="A52" s="3" t="s">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>4440</v>
+        <v>4438</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>4441</v>
+        <v>4439</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.5">
       <c r="A53" s="3" t="s">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>4435</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D53" s="69" t="s">
         <v>4437</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>4438</v>
-      </c>
-      <c r="D53" s="69" t="s">
-        <v>4439</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>4436</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.5">
       <c r="A54" s="3" t="s">
-        <v>4278</v>
+        <v>4276</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>4158</v>
+        <v>4156</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>4383</v>
+        <v>4381</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>4159</v>
+        <v>4157</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="47.25">
       <c r="A55" s="3" t="s">
-        <v>4279</v>
+        <v>4277</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>4160</v>
+        <v>4158</v>
       </c>
       <c r="D55" s="69" t="s">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>4161</v>
+        <v>4159</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="31.5">
       <c r="A56" s="3" t="s">
-        <v>4295</v>
+        <v>4293</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>4203</v>
+        <v>4201</v>
       </c>
       <c r="D56" s="69" t="s">
-        <v>4404</v>
+        <v>4402</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>4204</v>
+        <v>4202</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>4422</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.5">
       <c r="A57" s="3" t="s">
-        <v>4267</v>
+        <v>4265</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>4130</v>
+        <v>4128</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>4373</v>
+        <v>4371</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>340</v>
@@ -46421,19 +47454,19 @@
     </row>
     <row r="58" spans="1:6" ht="31.5">
       <c r="A58" s="3" t="s">
-        <v>4236</v>
+        <v>4234</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>4060</v>
+        <v>4058</v>
       </c>
       <c r="D58" s="69" t="s">
-        <v>4343</v>
+        <v>4341</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>4061</v>
+        <v>4059</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>340</v>
@@ -46441,19 +47474,19 @@
     </row>
     <row r="59" spans="1:6" ht="31.5">
       <c r="A59" s="3" t="s">
-        <v>4237</v>
+        <v>4235</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>4062</v>
+        <v>4060</v>
       </c>
       <c r="D59" s="69" t="s">
-        <v>4344</v>
+        <v>4342</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>4063</v>
+        <v>4061</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>340</v>
@@ -46461,19 +47494,19 @@
     </row>
     <row r="60" spans="1:6" ht="31.5">
       <c r="A60" s="3" t="s">
-        <v>4229</v>
+        <v>4227</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>4040</v>
+        <v>4038</v>
       </c>
       <c r="D60" s="69" t="s">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>4041</v>
+        <v>4039</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>340</v>
@@ -46481,19 +47514,19 @@
     </row>
     <row r="61" spans="1:6" ht="31.5">
       <c r="A61" s="3" t="s">
-        <v>4244</v>
+        <v>4242</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>4082</v>
+        <v>4080</v>
       </c>
       <c r="D61" s="69" t="s">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>4083</v>
+        <v>4081</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>340</v>
@@ -46501,19 +47534,19 @@
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>4270</v>
+        <v>4268</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>4138</v>
+        <v>4136</v>
       </c>
       <c r="D62" s="69" t="s">
-        <v>4423</v>
+        <v>4421</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>4139</v>
+        <v>4137</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>340</v>
@@ -46521,19 +47554,19 @@
     </row>
     <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="3" t="s">
-        <v>4277</v>
+        <v>4275</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>4156</v>
+        <v>4154</v>
       </c>
       <c r="D63" s="69" t="s">
-        <v>4382</v>
+        <v>4380</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>340</v>
@@ -46544,16 +47577,16 @@
         <v>1035</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4304</v>
+        <v>4302</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>4080</v>
+        <v>4078</v>
       </c>
       <c r="D64" s="69" t="s">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>4081</v>
+        <v>4079</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>340</v>
@@ -46561,62 +47594,62 @@
     </row>
     <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="3" t="s">
-        <v>4233</v>
+        <v>4231</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>4054</v>
+        <v>4052</v>
       </c>
       <c r="D65" s="69" t="s">
-        <v>4340</v>
+        <v>4338</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>4055</v>
+        <v>4053</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="3" t="s">
-        <v>4234</v>
+        <v>4232</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>4056</v>
+        <v>4054</v>
       </c>
       <c r="D66" s="69" t="s">
-        <v>4341</v>
+        <v>4339</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>4057</v>
+        <v>4055</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="3" t="s">
-        <v>4235</v>
+        <v>4233</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>4058</v>
+        <v>4056</v>
       </c>
       <c r="D67" s="69" t="s">
-        <v>4342</v>
+        <v>4340</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>4059</v>
+        <v>4057</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="31.5">
@@ -46627,36 +47660,36 @@
         <v>1832</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>4164</v>
+        <v>4162</v>
       </c>
       <c r="D68" s="69" t="s">
-        <v>4385</v>
+        <v>4383</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>4165</v>
+        <v>4163</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="31.5">
       <c r="A69" s="3" t="s">
-        <v>4281</v>
+        <v>4279</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>4166</v>
+        <v>4164</v>
       </c>
       <c r="D69" s="69" t="s">
-        <v>4386</v>
+        <v>4384</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>4167</v>
+        <v>4165</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="31.5">
@@ -46667,36 +47700,36 @@
         <v>1832</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>4168</v>
+        <v>4166</v>
       </c>
       <c r="D70" s="69" t="s">
-        <v>4387</v>
+        <v>4385</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>4169</v>
+        <v>4167</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="31.5">
       <c r="A71" s="3" t="s">
-        <v>4282</v>
+        <v>4280</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="D71" s="69" t="s">
-        <v>4388</v>
+        <v>4386</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>4171</v>
+        <v>4169</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>4415</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75">
@@ -46704,16 +47737,16 @@
         <v>1171</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>4329</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D72" s="69" t="s">
         <v>4331</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>4038</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>4333</v>
-      </c>
       <c r="E72" s="6" t="s">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>177</v>
@@ -46721,19 +47754,19 @@
     </row>
     <row r="73" spans="1:6" ht="31.5">
       <c r="A73" s="3" t="s">
-        <v>4271</v>
+        <v>4269</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>4140</v>
+        <v>4138</v>
       </c>
       <c r="D73" s="69" t="s">
-        <v>4375</v>
+        <v>4373</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>4141</v>
+        <v>4139</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>177</v>
@@ -46741,19 +47774,19 @@
     </row>
     <row r="74" spans="1:6" ht="31.5">
       <c r="A74" s="3" t="s">
-        <v>4272</v>
+        <v>4270</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>4142</v>
+        <v>4140</v>
       </c>
       <c r="D74" s="69" t="s">
-        <v>4376</v>
+        <v>4374</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>4143</v>
+        <v>4141</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>177</v>
@@ -46761,19 +47794,19 @@
     </row>
     <row r="75" spans="1:6" ht="31.5">
       <c r="A75" s="3" t="s">
-        <v>4283</v>
+        <v>4281</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4318</v>
+        <v>4316</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="D75" s="69" t="s">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>4173</v>
+        <v>4171</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>177</v>
@@ -46781,19 +47814,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>4247</v>
+        <v>4245</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4321</v>
+        <v>4319</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>4088</v>
+        <v>4086</v>
       </c>
       <c r="D76" s="69" t="s">
-        <v>4354</v>
+        <v>4352</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>4089</v>
+        <v>4087</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>991</v>
@@ -46801,19 +47834,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>4284</v>
+        <v>4282</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4317</v>
+        <v>4315</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>4174</v>
+        <v>4172</v>
       </c>
       <c r="D77" s="69" t="s">
-        <v>4390</v>
+        <v>4388</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>4175</v>
+        <v>4173</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>991</v>
@@ -46827,13 +47860,13 @@
         <v>1832</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>4176</v>
+        <v>4174</v>
       </c>
       <c r="D78" s="69" t="s">
-        <v>4391</v>
+        <v>4389</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>4177</v>
+        <v>4175</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>991</v>
@@ -46847,13 +47880,13 @@
         <v>1832</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>4178</v>
+        <v>4176</v>
       </c>
       <c r="D79" s="69" t="s">
-        <v>4392</v>
+        <v>4390</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>4179</v>
+        <v>4177</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>991</v>
@@ -46861,19 +47894,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75">
       <c r="A80" s="3" t="s">
-        <v>4296</v>
+        <v>4294</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>4205</v>
+        <v>4203</v>
       </c>
       <c r="D80" s="69" t="s">
-        <v>4418</v>
+        <v>4416</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>4206</v>
+        <v>4204</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>991</v>
@@ -46881,19 +47914,19 @@
     </row>
     <row r="81" spans="1:6" ht="31.5">
       <c r="A81" s="3" t="s">
-        <v>4297</v>
+        <v>4295</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>4207</v>
+        <v>4205</v>
       </c>
       <c r="D81" s="69" t="s">
-        <v>4419</v>
+        <v>4417</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>4208</v>
+        <v>4206</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>991</v>
@@ -46907,13 +47940,13 @@
         <v>1832</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>4050</v>
+        <v>4048</v>
       </c>
       <c r="D82" s="69" t="s">
-        <v>4339</v>
+        <v>4337</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>4051</v>
+        <v>4049</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>991</v>
@@ -46921,19 +47954,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="3" t="s">
-        <v>4303</v>
+        <v>4301</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>4225</v>
+        <v>4223</v>
       </c>
       <c r="D83" s="69" t="s">
-        <v>4412</v>
+        <v>4410</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>4226</v>
+        <v>4224</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>991</v>
@@ -46941,19 +47974,19 @@
     </row>
     <row r="84" spans="1:6" ht="31.5">
       <c r="A84" s="3" t="s">
-        <v>4286</v>
+        <v>4284</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>4460</v>
+        <v>4458</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>4182</v>
+        <v>4180</v>
       </c>
       <c r="D84" s="69" t="s">
-        <v>4394</v>
+        <v>4392</v>
       </c>
       <c r="E84" s="6" t="s">
-        <v>4183</v>
+        <v>4181</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>535</v>
@@ -46961,19 +47994,19 @@
     </row>
     <row r="85" spans="1:6" ht="31.5">
       <c r="A85" s="3" t="s">
-        <v>4253</v>
+        <v>4251</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>4100</v>
+        <v>4098</v>
       </c>
       <c r="D85" s="69" t="s">
-        <v>4359</v>
+        <v>4357</v>
       </c>
       <c r="E85" s="6" t="s">
-        <v>4101</v>
+        <v>4099</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>817</v>
@@ -46981,19 +48014,19 @@
     </row>
     <row r="86" spans="1:6" ht="31.5">
       <c r="A86" s="3" t="s">
-        <v>4294</v>
+        <v>4292</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>4314</v>
+        <v>4312</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="D86" s="69" t="s">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>817</v>
@@ -47001,59 +48034,59 @@
     </row>
     <row r="87" spans="1:6" ht="31.5">
       <c r="A87" s="3" t="s">
-        <v>4298</v>
+        <v>4296</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4313</v>
+        <v>4311</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>4209</v>
+        <v>4207</v>
       </c>
       <c r="D87" s="69" t="s">
-        <v>4405</v>
+        <v>4403</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>4210</v>
+        <v>4208</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="31.5">
       <c r="A88" s="3" t="s">
-        <v>4299</v>
+        <v>4297</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>4309</v>
+        <v>4307</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>4211</v>
+        <v>4209</v>
       </c>
       <c r="D88" s="69" t="s">
-        <v>4406</v>
+        <v>4404</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>4212</v>
+        <v>4210</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>4420</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="47.25">
       <c r="A89" s="3" t="s">
-        <v>4239</v>
+        <v>4237</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="D89" s="69" t="s">
-        <v>4346</v>
+        <v>4344</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>4069</v>
+        <v>4067</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>589</v>
@@ -47067,13 +48100,13 @@
         <v>1800</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>4078</v>
+        <v>4076</v>
       </c>
       <c r="D90" s="69" t="s">
-        <v>4350</v>
+        <v>4348</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>4079</v>
+        <v>4077</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>589</v>
@@ -47081,19 +48114,19 @@
     </row>
     <row r="91" spans="1:6" ht="31.5">
       <c r="A91" s="3" t="s">
-        <v>4274</v>
+        <v>4272</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>4148</v>
+        <v>4146</v>
       </c>
       <c r="D91" s="69" t="s">
-        <v>4379</v>
+        <v>4377</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>4149</v>
+        <v>4147</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>589</v>
@@ -47107,13 +48140,13 @@
         <v>1800</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>4048</v>
+        <v>4046</v>
       </c>
       <c r="D92" s="69" t="s">
-        <v>4338</v>
+        <v>4336</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>4049</v>
+        <v>4047</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>589</v>
@@ -47121,59 +48154,59 @@
     </row>
     <row r="93" spans="1:6" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>4240</v>
+        <v>4238</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>4323</v>
+        <v>4321</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>4070</v>
+        <v>4068</v>
       </c>
       <c r="D93" s="69" t="s">
-        <v>4347</v>
+        <v>4345</v>
       </c>
       <c r="E93" s="6" t="s">
-        <v>4071</v>
+        <v>4069</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="3" t="s">
-        <v>4300</v>
+        <v>4298</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>4312</v>
+        <v>4310</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>4215</v>
+        <v>4213</v>
       </c>
       <c r="D94" s="69" t="s">
-        <v>4408</v>
+        <v>4406</v>
       </c>
       <c r="E94" s="6" t="s">
-        <v>4216</v>
+        <v>4214</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>4455</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="47.25">
       <c r="A95" s="3" t="s">
-        <v>4252</v>
+        <v>4250</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>4098</v>
+        <v>4096</v>
       </c>
       <c r="D95" s="69" t="s">
-        <v>4358</v>
+        <v>4356</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>4099</v>
+        <v>4097</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>673</v>
@@ -47184,16 +48217,16 @@
         <v>673</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>4308</v>
+        <v>4306</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>4223</v>
+        <v>4221</v>
       </c>
       <c r="D96" s="69" t="s">
-        <v>4411</v>
+        <v>4409</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>4224</v>
+        <v>4222</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>673</v>
@@ -47204,16 +48237,16 @@
         <v>702</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>4311</v>
+        <v>4309</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>4227</v>
+        <v>4225</v>
       </c>
       <c r="D97" s="69" t="s">
-        <v>4413</v>
+        <v>4411</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>4228</v>
+        <v>4226</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>673</v>
@@ -47224,33 +48257,33 @@
         <v>13</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4306</v>
+        <v>4304</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>4064</v>
+        <v>4062</v>
       </c>
       <c r="D98" s="69" t="s">
-        <v>4454</v>
+        <v>4452</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>4065</v>
+        <v>4063</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>4249</v>
+        <v>4247</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4305</v>
+        <v>4303</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>4092</v>
+        <v>4090</v>
       </c>
       <c r="D99" s="69" t="s">
-        <v>4355</v>
+        <v>4353</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>4093</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="47.25">
@@ -47261,47 +48294,47 @@
         <v>1832</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>4136</v>
+        <v>4134</v>
       </c>
       <c r="D100" s="69" t="s">
-        <v>4374</v>
+        <v>4372</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>4137</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>4276</v>
+        <v>4274</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>4154</v>
+        <v>4152</v>
       </c>
       <c r="D101" s="69" t="s">
-        <v>4381</v>
+        <v>4379</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>4155</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30">
       <c r="A102" s="3" t="s">
-        <v>4328</v>
+        <v>4326</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>4448</v>
+        <v>4446</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>4447</v>
+        <v>4445</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>4463</v>
+        <v>4461</v>
       </c>
     </row>
   </sheetData>

--- a/DocxDocument.Model.Old/docs/OpenXml.xlsx
+++ b/DocxDocument.Model.Old/docs/OpenXml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\DocxDocument\DocxDocument.Model.Old\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5855B903-9078-4298-B279-3C459895EBF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D46B8-C6CD-490A-9A47-41A7BB4E722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="17" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="22" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="5" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8085" uniqueCount="4564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8121" uniqueCount="4566">
   <si>
     <t>Category</t>
   </si>
@@ -19629,12 +19629,18 @@
   <si>
     <t>Paragraph Properties Default</t>
   </si>
+  <si>
+    <t>Base Table Properties</t>
+  </si>
+  <si>
+    <t>Ext Base Table Properties</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19816,6 +19822,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -19941,7 +19955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -20181,6 +20195,21 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -33403,7 +33432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68172C7A-674A-4361-9F61-7935C1F5ACCA}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -44717,10 +44746,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B87372D-7E3F-4CE1-9CFA-619F49901691}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44729,15 +44758,16 @@
     <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" style="3" customWidth="1"/>
-    <col min="5" max="6" width="12" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="70" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="70" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="70" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="70" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" style="70" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="71" customFormat="1" ht="63">
+    <row r="1" spans="1:11" s="71" customFormat="1" ht="63">
       <c r="A1" s="85" t="s">
         <v>2856</v>
       </c>
@@ -44753,471 +44783,551 @@
       <c r="E1" s="61" t="s">
         <v>3400</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="F1" s="88" t="s">
+        <v>4564</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>4565</v>
+      </c>
+      <c r="H1" s="62" t="s">
         <v>3762</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="62" t="s">
         <v>3764</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="J1" s="62" t="s">
         <v>3766</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="K1" s="62" t="s">
         <v>3768</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="3">
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="89" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="89" t="s">
         <v>3628</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="90" t="s">
         <v>3533</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="90" t="s">
         <v>3534</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H2" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I2" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J2" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="3">
+      <c r="F2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J2" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K2" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75">
+      <c r="A3" s="89">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="89" t="s">
         <v>3750</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="89" t="s">
         <v>3736</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="90" t="s">
         <v>3535</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="90" t="s">
         <v>3536</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75">
-      <c r="A4" s="3">
+      <c r="F3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J3" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K3" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
+      <c r="A4" s="89">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="89" t="s">
         <v>3755</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="89" t="s">
         <v>3738</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="90" t="s">
         <v>3539</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="90" t="s">
         <v>3540</v>
       </c>
-      <c r="F4" s="69"/>
-      <c r="G4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I4" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J4" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75">
-      <c r="A5" s="3">
+      <c r="F4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J4" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K4" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
+      <c r="A5" s="89">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="89" t="s">
         <v>3756</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="89" t="s">
         <v>3739</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="90" t="s">
         <v>3541</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="90" t="s">
         <v>3542</v>
       </c>
-      <c r="F5" s="69"/>
-      <c r="G5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I5" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J5" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
-      <c r="A6" s="3">
+      <c r="F5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J5" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K5" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="89">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="89" t="s">
         <v>3757</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="89" t="s">
         <v>3741</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="90" t="s">
         <v>3545</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="90" t="s">
         <v>3546</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I6" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J6" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75">
-      <c r="A7" s="3">
+      <c r="F6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
+      <c r="A7" s="89">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="89" t="s">
         <v>3758</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="89" t="s">
         <v>3677</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="90" t="s">
         <v>3531</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="90" t="s">
         <v>3532</v>
       </c>
-      <c r="F7" s="69"/>
-      <c r="G7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75">
-      <c r="A8" s="3">
+      <c r="F7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J7" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K7" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="89">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="89" t="s">
         <v>3753</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="89" t="s">
         <v>3742</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="90" t="s">
         <v>3547</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="90" t="s">
         <v>3548</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75">
-      <c r="A9" s="3">
+      <c r="F8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K8" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
+      <c r="A9" s="89">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="89" t="s">
         <v>3754</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="89" t="s">
         <v>3743</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="90" t="s">
         <v>3549</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="90" t="s">
         <v>3550</v>
       </c>
-      <c r="F9" s="69"/>
-      <c r="G9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I9" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J9" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75">
-      <c r="A10" s="3">
+      <c r="F9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J9" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K9" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
+      <c r="A10" s="89">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="89" t="s">
         <v>3763</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="89" t="s">
         <v>3748</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="90" t="s">
         <v>3559</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="90" t="s">
         <v>3560</v>
       </c>
-      <c r="F10" s="69"/>
-      <c r="G10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I10" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75">
-      <c r="A11" s="3">
+      <c r="F10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J10" s="77" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K10" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="91">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="91" t="s">
         <v>622</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="91" t="s">
         <v>3747</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="92" t="s">
         <v>3557</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="92" t="s">
         <v>3558</v>
       </c>
-      <c r="F11" s="69"/>
-      <c r="G11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H11" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I11" s="57" t="s">
+      <c r="F11" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J11" s="57" t="s">
+      <c r="G11" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J11" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75">
-      <c r="A12" s="3">
+      <c r="K11" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="91">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="91" t="s">
         <v>3749</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="91" t="s">
         <v>3735</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="92" t="s">
         <v>3529</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="92" t="s">
         <v>3530</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I12" s="57" t="s">
+      <c r="F12" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J12" s="57" t="s">
+      <c r="G12" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J12" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75">
-      <c r="A13" s="3">
+      <c r="K12" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75">
+      <c r="A13" s="91">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="91" t="s">
         <v>3751</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="91" t="s">
         <v>3737</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="92" t="s">
         <v>3537</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="92" t="s">
         <v>3538</v>
       </c>
-      <c r="F13" s="69"/>
-      <c r="G13" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H13" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I13" s="57" t="s">
+      <c r="F13" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="G13" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I13" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J13" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75">
-      <c r="A14" s="3">
+      <c r="K13" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="91">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="91" t="s">
         <v>3752</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="91" t="s">
         <v>3740</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="92" t="s">
         <v>3543</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="92" t="s">
         <v>3544</v>
       </c>
-      <c r="F14" s="69"/>
-      <c r="G14" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H14" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I14" s="57" t="s">
+      <c r="F14" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="G14" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I14" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J14" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75">
-      <c r="A15" s="3">
+      <c r="K14" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
+      <c r="A15" s="91">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="91" t="s">
         <v>3759</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="91" t="s">
         <v>3744</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="92" t="s">
         <v>3551</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="92" t="s">
         <v>3552</v>
       </c>
-      <c r="F15" s="69"/>
-      <c r="G15" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H15" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I15" s="57" t="s">
+      <c r="F15" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J15" s="57" t="s">
+      <c r="G15" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I15" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J15" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75">
-      <c r="A16" s="3">
+      <c r="K15" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="91">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="91" t="s">
         <v>3760</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="91" t="s">
         <v>3745</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="92" t="s">
         <v>3553</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="92" t="s">
         <v>3554</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H16" s="57" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I16" s="57" t="s">
+      <c r="F16" s="81" t="s">
         <v>4471</v>
       </c>
-      <c r="J16" s="57" t="s">
+      <c r="G16" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H16" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I16" s="81" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J16" s="81" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75">
+      <c r="K16" s="81" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -45233,12 +45343,14 @@
       <c r="E17" s="69" t="s">
         <v>3556</v>
       </c>
-      <c r="F17" s="69"/>
+      <c r="F17" s="57" t="s">
+        <v>4471</v>
+      </c>
       <c r="G17" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="I17" s="57" t="s">
         <v>4471</v>
@@ -45246,8 +45358,11 @@
       <c r="J17" s="57" t="s">
         <v>4471</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75">
+      <c r="K17" s="57" t="s">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -45263,7 +45378,9 @@
       <c r="E18" s="69" t="s">
         <v>3861</v>
       </c>
-      <c r="F18" s="69"/>
+      <c r="F18" s="57" t="s">
+        <v>4471</v>
+      </c>
       <c r="G18" s="57" t="s">
         <v>4471</v>
       </c>
@@ -45271,14 +45388,17 @@
         <v>4471</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>3600</v>
+        <v>4471</v>
       </c>
       <c r="J18" s="57" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K18" s="57" t="s">
         <v>4471</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H11">
     <sortCondition ref="B1:B11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DocxDocument.Model.Old/docs/OpenXml.xlsx
+++ b/DocxDocument.Model.Old/docs/OpenXml.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS\Projects\DocxDocument\DocxDocument.Model.Old\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462D46B8-C6CD-490A-9A47-41A7BB4E722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43A1AB0-2E2A-4A5D-B882-4F681A4BA886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="18" activeTab="22" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="22" xr2:uid="{9753A5F8-F6BB-4813-8D2C-881E3F6B9F2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Document" sheetId="5" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8121" uniqueCount="4566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8169" uniqueCount="4569">
   <si>
     <t>Category</t>
   </si>
@@ -17159,9 +17159,6 @@
     <t>TableLook</t>
   </si>
   <si>
-    <t>TableCellMarginDefaults</t>
-  </si>
-  <si>
     <t>TableCellSpacing</t>
   </si>
   <si>
@@ -19634,6 +19631,18 @@
   </si>
   <si>
     <t>Ext Base Table Properties</t>
+  </si>
+  <si>
+    <t>DefaultTableCellMargin</t>
+  </si>
+  <si>
+    <t>Table Style Conditional Table Properties</t>
+  </si>
+  <si>
+    <t>Base Table Row Properties</t>
+  </si>
+  <si>
+    <t>Table Style Conditional Row Properties</t>
   </si>
 </sst>
 </file>
@@ -19831,7 +19840,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19871,6 +19880,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -19955,7 +19970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -20210,6 +20225,15 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -29862,13 +29886,13 @@
         <v>2856</v>
       </c>
       <c r="B1" s="74" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>4464</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>4466</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>4465</v>
       </c>
       <c r="E1" s="52" t="s">
         <v>856</v>
@@ -29877,31 +29901,31 @@
         <v>1863</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>4551</v>
+        <v>4550</v>
       </c>
       <c r="H1" s="87" t="s">
+        <v>4557</v>
+      </c>
+      <c r="I1" s="87" t="s">
         <v>4558</v>
       </c>
-      <c r="I1" s="87" t="s">
-        <v>4559</v>
-      </c>
       <c r="J1" s="59" t="s">
-        <v>4562</v>
+        <v>4561</v>
       </c>
       <c r="K1" s="59" t="s">
+        <v>4477</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>3845</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>3844</v>
+      </c>
+      <c r="N1" s="59" t="s">
         <v>4478</v>
       </c>
-      <c r="L1" s="59" t="s">
-        <v>3846</v>
-      </c>
-      <c r="M1" s="59" t="s">
-        <v>3845</v>
-      </c>
-      <c r="N1" s="59" t="s">
+      <c r="O1" s="59" t="s">
         <v>4479</v>
-      </c>
-      <c r="O1" s="59" t="s">
-        <v>4480</v>
       </c>
       <c r="P1" s="59" t="s">
         <v>3521</v>
@@ -29912,7 +29936,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C2" s="75" t="s">
         <v>3590</v>
@@ -29927,7 +29951,7 @@
         <v>3383</v>
       </c>
       <c r="G2" s="76" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="H2" s="77" t="s">
         <v>3600</v>
@@ -29963,7 +29987,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>3361</v>
@@ -29978,7 +30002,7 @@
         <v>3361</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="H3" s="77" t="s">
         <v>3600</v>
@@ -30014,7 +30038,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C4" s="75" t="s">
         <v>3561</v>
@@ -30029,7 +30053,7 @@
         <v>3362</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>3600</v>
@@ -30065,7 +30089,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C5" s="75" t="s">
         <v>3581</v>
@@ -30080,7 +30104,7 @@
         <v>3374</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="H5" s="77" t="s">
         <v>3600</v>
@@ -30116,7 +30140,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C6" s="75" t="s">
         <v>3582</v>
@@ -30131,7 +30155,7 @@
         <v>3375</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="H6" s="77" t="s">
         <v>3600</v>
@@ -30167,7 +30191,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C7" s="75" t="s">
         <v>3577</v>
@@ -30182,7 +30206,7 @@
         <v>3393</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="H7" s="77" t="s">
         <v>3600</v>
@@ -30218,10 +30242,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="D8" s="75" t="s">
         <v>3614</v>
@@ -30233,7 +30257,7 @@
         <v>3394</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="H8" s="77" t="s">
         <v>3600</v>
@@ -30269,7 +30293,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C9" s="75" t="s">
         <v>3562</v>
@@ -30284,7 +30308,7 @@
         <v>3364</v>
       </c>
       <c r="G9" s="76" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="H9" s="77" t="s">
         <v>3600</v>
@@ -30320,7 +30344,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C10" s="75" t="s">
         <v>3594</v>
@@ -30335,7 +30359,7 @@
         <v>3388</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>3600</v>
@@ -30371,7 +30395,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C11" s="75" t="s">
         <v>3395</v>
@@ -30386,7 +30410,7 @@
         <v>3395</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="H11" s="77" t="s">
         <v>3600</v>
@@ -30422,7 +30446,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C12" s="75" t="s">
         <v>3572</v>
@@ -30437,7 +30461,7 @@
         <v>3392</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="H12" s="77" t="s">
         <v>3600</v>
@@ -30473,7 +30497,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C13" s="75" t="s">
         <v>3573</v>
@@ -30488,7 +30512,7 @@
         <v>3367</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="H13" s="77" t="s">
         <v>3600</v>
@@ -30524,7 +30548,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>3564</v>
@@ -30539,7 +30563,7 @@
         <v>3365</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="H14" s="77" t="s">
         <v>3600</v>
@@ -30575,7 +30599,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C15" s="75" t="s">
         <v>3571</v>
@@ -30584,13 +30608,13 @@
         <v>3632</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>4554</v>
+        <v>4553</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>3390</v>
       </c>
       <c r="G15" s="76" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="H15" s="77" t="s">
         <v>3600</v>
@@ -30626,7 +30650,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C16" s="75" t="s">
         <v>3578</v>
@@ -30635,13 +30659,13 @@
         <v>3605</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>4553</v>
+        <v>4552</v>
       </c>
       <c r="F16" s="76" t="s">
         <v>3398</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="H16" s="77" t="s">
         <v>3600</v>
@@ -30677,7 +30701,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C17" s="75" t="s">
         <v>3568</v>
@@ -30692,7 +30716,7 @@
         <v>3377</v>
       </c>
       <c r="G17" s="76" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="H17" s="77" t="s">
         <v>3600</v>
@@ -30728,7 +30752,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C18" s="75" t="s">
         <v>1151</v>
@@ -30743,7 +30767,7 @@
         <v>3389</v>
       </c>
       <c r="G18" s="76" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="H18" s="77" t="s">
         <v>3600</v>
@@ -30779,7 +30803,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C19" s="75" t="s">
         <v>3597</v>
@@ -30794,7 +30818,7 @@
         <v>3397</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>3600</v>
@@ -30830,7 +30854,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C20" s="75" t="s">
         <v>3570</v>
@@ -30845,7 +30869,7 @@
         <v>3382</v>
       </c>
       <c r="G20" s="76" t="s">
-        <v>4556</v>
+        <v>4555</v>
       </c>
       <c r="H20" s="77" t="s">
         <v>3600</v>
@@ -30881,7 +30905,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C21" s="75" t="s">
         <v>3569</v>
@@ -30896,7 +30920,7 @@
         <v>3381</v>
       </c>
       <c r="G21" s="76" t="s">
-        <v>4510</v>
+        <v>4509</v>
       </c>
       <c r="H21" s="77" t="s">
         <v>3600</v>
@@ -30932,7 +30956,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C22" s="75" t="s">
         <v>3565</v>
@@ -30947,7 +30971,7 @@
         <v>3371</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="H22" s="77" t="s">
         <v>3600</v>
@@ -30983,7 +31007,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C23" s="75" t="s">
         <v>3567</v>
@@ -30998,7 +31022,7 @@
         <v>3376</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="H23" s="77" t="s">
         <v>3600</v>
@@ -31034,7 +31058,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C24" s="75" t="s">
         <v>712</v>
@@ -31049,7 +31073,7 @@
         <v>712</v>
       </c>
       <c r="G24" s="76" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="H24" s="77" t="s">
         <v>3600</v>
@@ -31085,7 +31109,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C25" s="75" t="s">
         <v>321</v>
@@ -31100,7 +31124,7 @@
         <v>3378</v>
       </c>
       <c r="G25" s="76" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="H25" s="77" t="s">
         <v>3600</v>
@@ -31136,7 +31160,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C26" s="75" t="s">
         <v>3584</v>
@@ -31151,7 +31175,7 @@
         <v>3379</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>4509</v>
+        <v>4508</v>
       </c>
       <c r="H26" s="77" t="s">
         <v>3600</v>
@@ -31187,7 +31211,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C27" s="75" t="s">
         <v>562</v>
@@ -31202,7 +31226,7 @@
         <v>3387</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="H27" s="77" t="s">
         <v>3600</v>
@@ -31238,7 +31262,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C28" s="75" t="s">
         <v>42</v>
@@ -31253,7 +31277,7 @@
         <v>3363</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="H28" s="77" t="s">
         <v>3600</v>
@@ -31289,7 +31313,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C29" s="75" t="s">
         <v>3662</v>
@@ -31304,7 +31328,7 @@
         <v>3369</v>
       </c>
       <c r="G29" s="76" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="H29" s="77" t="s">
         <v>3600</v>
@@ -31340,7 +31364,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C30" s="75" t="s">
         <v>3576</v>
@@ -31355,7 +31379,7 @@
         <v>3372</v>
       </c>
       <c r="G30" s="76" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="H30" s="77" t="s">
         <v>3600</v>
@@ -31391,7 +31415,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C31" s="75" t="s">
         <v>1944</v>
@@ -31406,7 +31430,7 @@
         <v>3370</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="H31" s="77" t="s">
         <v>3600</v>
@@ -31442,7 +31466,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C32" s="75" t="s">
         <v>3574</v>
@@ -31457,7 +31481,7 @@
         <v>3368</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="77" t="s">
         <v>3600</v>
@@ -31493,7 +31517,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C33" s="75" t="s">
         <v>3580</v>
@@ -31508,7 +31532,7 @@
         <v>3396</v>
       </c>
       <c r="G33" s="76" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="H33" s="77" t="s">
         <v>3600</v>
@@ -31544,7 +31568,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C34" s="75" t="s">
         <v>3595</v>
@@ -31559,7 +31583,7 @@
         <v>3391</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="H34" s="77" t="s">
         <v>3600</v>
@@ -31595,7 +31619,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C35" s="75" t="s">
         <v>3598</v>
@@ -31610,7 +31634,7 @@
         <v>3399</v>
       </c>
       <c r="G35" s="76" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="H35" s="77" t="s">
         <v>3600</v>
@@ -31646,7 +31670,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C36" s="79" t="s">
         <v>3592</v>
@@ -31661,19 +31685,19 @@
         <v>3385</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="H36" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I36" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J36" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K36" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L36" s="81" t="s">
         <v>3600</v>
@@ -31688,7 +31712,7 @@
         <v>3600</v>
       </c>
       <c r="P36" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q36" s="28"/>
     </row>
@@ -31697,7 +31721,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C37" s="79" t="s">
         <v>3563</v>
@@ -31712,19 +31736,19 @@
         <v>3366</v>
       </c>
       <c r="G37" s="80" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="H37" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I37" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J37" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K37" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L37" s="81" t="s">
         <v>3600</v>
@@ -31748,7 +31772,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C38" s="79" t="s">
         <v>3589</v>
@@ -31763,19 +31787,19 @@
         <v>3386</v>
       </c>
       <c r="G38" s="80" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="H38" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I38" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J38" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K38" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L38" s="81" t="s">
         <v>3600</v>
@@ -31799,7 +31823,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C39" s="79" t="s">
         <v>3566</v>
@@ -31814,19 +31838,19 @@
         <v>3373</v>
       </c>
       <c r="G39" s="80" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="H39" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I39" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J39" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K39" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L39" s="81" t="s">
         <v>3600</v>
@@ -31841,7 +31865,7 @@
         <v>3600</v>
       </c>
       <c r="P39" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q39" s="28"/>
     </row>
@@ -31850,10 +31874,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C40" s="79" t="s">
-        <v>4557</v>
+        <v>4556</v>
       </c>
       <c r="D40" s="79" t="s">
         <v>3640</v>
@@ -31865,19 +31889,19 @@
         <v>3641</v>
       </c>
       <c r="G40" s="80" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I40" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J40" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K40" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L40" s="81" t="s">
         <v>3600</v>
@@ -31892,7 +31916,7 @@
         <v>3600</v>
       </c>
       <c r="P40" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q40" s="28"/>
     </row>
@@ -31901,7 +31925,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C41" s="79" t="s">
         <v>3579</v>
@@ -31916,19 +31940,19 @@
         <v>3645</v>
       </c>
       <c r="G41" s="79" t="s">
-        <v>4532</v>
+        <v>4531</v>
       </c>
       <c r="H41" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I41" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J41" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K41" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L41" s="81" t="s">
         <v>3600</v>
@@ -31943,7 +31967,7 @@
         <v>3600</v>
       </c>
       <c r="P41" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q41" s="28"/>
     </row>
@@ -31952,7 +31976,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C42" s="79" t="s">
         <v>3583</v>
@@ -31965,19 +31989,19 @@
         <v>3647</v>
       </c>
       <c r="G42" s="80" t="s">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I42" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J42" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K42" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L42" s="81" t="s">
         <v>3600</v>
@@ -31992,7 +32016,7 @@
         <v>3600</v>
       </c>
       <c r="P42" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q42" s="28"/>
     </row>
@@ -32001,7 +32025,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C43" s="79" t="s">
         <v>3585</v>
@@ -32016,19 +32040,19 @@
         <v>3648</v>
       </c>
       <c r="G43" s="80" t="s">
-        <v>4534</v>
+        <v>4533</v>
       </c>
       <c r="H43" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I43" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J43" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K43" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L43" s="81" t="s">
         <v>3600</v>
@@ -32043,7 +32067,7 @@
         <v>3600</v>
       </c>
       <c r="P43" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q43" s="28"/>
     </row>
@@ -32052,7 +32076,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C44" s="79" t="s">
         <v>3586</v>
@@ -32067,19 +32091,19 @@
         <v>3652</v>
       </c>
       <c r="G44" s="80" t="s">
-        <v>4535</v>
+        <v>4534</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I44" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J44" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K44" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L44" s="81" t="s">
         <v>3600</v>
@@ -32094,7 +32118,7 @@
         <v>3600</v>
       </c>
       <c r="P44" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q44" s="28"/>
     </row>
@@ -32103,7 +32127,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C45" s="79" t="s">
         <v>3587</v>
@@ -32118,19 +32142,19 @@
         <v>3663</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="H45" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I45" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J45" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K45" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L45" s="81" t="s">
         <v>3600</v>
@@ -32145,7 +32169,7 @@
         <v>3600</v>
       </c>
       <c r="P45" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q45" s="28"/>
     </row>
@@ -32154,7 +32178,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C46" s="79" t="s">
         <v>3588</v>
@@ -32169,19 +32193,19 @@
         <v>3664</v>
       </c>
       <c r="G46" s="80" t="s">
-        <v>4537</v>
+        <v>4536</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I46" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J46" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K46" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L46" s="81" t="s">
         <v>3600</v>
@@ -32196,7 +32220,7 @@
         <v>3600</v>
       </c>
       <c r="P46" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q46" s="28"/>
     </row>
@@ -32205,7 +32229,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C47" s="79" t="s">
         <v>3593</v>
@@ -32220,19 +32244,19 @@
         <v>3657</v>
       </c>
       <c r="G47" s="80" t="s">
-        <v>4538</v>
+        <v>4537</v>
       </c>
       <c r="H47" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I47" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J47" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K47" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L47" s="81" t="s">
         <v>3600</v>
@@ -32247,7 +32271,7 @@
         <v>3600</v>
       </c>
       <c r="P47" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q47" s="28"/>
     </row>
@@ -32256,7 +32280,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C48" s="79" t="s">
         <v>3575</v>
@@ -32272,16 +32296,16 @@
       </c>
       <c r="G48" s="80"/>
       <c r="H48" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I48" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J48" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K48" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L48" s="81" t="s">
         <v>3600</v>
@@ -32296,7 +32320,7 @@
         <v>3600</v>
       </c>
       <c r="P48" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q48" s="28"/>
     </row>
@@ -32305,7 +32329,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C49" s="79" t="s">
         <v>712</v>
@@ -32320,19 +32344,19 @@
         <v>3659</v>
       </c>
       <c r="G49" s="80" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="H49" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I49" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J49" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K49" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L49" s="81" t="s">
         <v>3600</v>
@@ -32347,7 +32371,7 @@
         <v>3600</v>
       </c>
       <c r="P49" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q49" s="28"/>
     </row>
@@ -32356,7 +32380,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C50" s="79" t="s">
         <v>3596</v>
@@ -32371,19 +32395,19 @@
         <v>3661</v>
       </c>
       <c r="G50" s="80" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="H50" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I50" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J50" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K50" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L50" s="81" t="s">
         <v>3600</v>
@@ -32398,7 +32422,7 @@
         <v>3600</v>
       </c>
       <c r="P50" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q50" s="28"/>
     </row>
@@ -32407,34 +32431,34 @@
         <v>50</v>
       </c>
       <c r="B51" s="79" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C51" s="79" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="D51" s="79" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="E51" s="79" t="s">
         <v>3654</v>
       </c>
       <c r="F51" s="80" t="s">
-        <v>4548</v>
+        <v>4547</v>
       </c>
       <c r="G51" s="80" t="s">
-        <v>4550</v>
+        <v>4549</v>
       </c>
       <c r="H51" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I51" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="J51" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K51" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L51" s="81" t="s">
         <v>3600</v>
@@ -32449,7 +32473,7 @@
         <v>3600</v>
       </c>
       <c r="P51" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q51" s="28"/>
     </row>
@@ -32458,40 +32482,40 @@
         <v>51</v>
       </c>
       <c r="B52" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F52" s="27" t="s">
-        <v>4483</v>
+        <v>4482</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="H52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N52" s="57" t="s">
         <v>3600</v>
@@ -32500,7 +32524,7 @@
         <v>3600</v>
       </c>
       <c r="P52" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q52" s="28"/>
     </row>
@@ -32509,40 +32533,40 @@
         <v>52</v>
       </c>
       <c r="B53" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>4482</v>
+        <v>4481</v>
       </c>
       <c r="E53" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F53" s="27" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="H53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N53" s="57" t="s">
         <v>3600</v>
@@ -32551,7 +32575,7 @@
         <v>3600</v>
       </c>
       <c r="P53" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q53" s="28"/>
     </row>
@@ -32560,40 +32584,40 @@
         <v>53</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>4476</v>
+        <v>4475</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="E54" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F54" s="27" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="H54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N54" s="57" t="s">
         <v>3600</v>
@@ -32602,7 +32626,7 @@
         <v>3600</v>
       </c>
       <c r="P54" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q54" s="28"/>
     </row>
@@ -32611,40 +32635,40 @@
         <v>54</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>4477</v>
+        <v>4476</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="E55" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F55" s="27" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="G55" s="36" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="H55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N55" s="57" t="s">
         <v>3600</v>
@@ -32653,7 +32677,7 @@
         <v>3600</v>
       </c>
       <c r="P55" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q55" s="28"/>
     </row>
@@ -32662,40 +32686,40 @@
         <v>55</v>
       </c>
       <c r="B56" s="25" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="E56" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>4549</v>
+        <v>4548</v>
       </c>
       <c r="G56" s="27" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="H56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N56" s="57" t="s">
         <v>3600</v>
@@ -32704,7 +32728,7 @@
         <v>3600</v>
       </c>
       <c r="P56" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q56" s="28"/>
     </row>
@@ -32713,10 +32737,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>3667</v>
@@ -32728,25 +32752,25 @@
         <v>3380</v>
       </c>
       <c r="G57" s="27" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
       <c r="H57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N57" s="57" t="s">
         <v>3600</v>
@@ -32755,7 +32779,7 @@
         <v>3600</v>
       </c>
       <c r="P57" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q57" s="28"/>
     </row>
@@ -32764,40 +32788,40 @@
         <v>57</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
       <c r="E58" s="25" t="s">
-        <v>4555</v>
+        <v>4554</v>
       </c>
       <c r="F58" s="27" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
       <c r="G58" s="27" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="H58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N58" s="57" t="s">
         <v>3600</v>
@@ -32806,7 +32830,7 @@
         <v>3600</v>
       </c>
       <c r="P58" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q58" s="28"/>
     </row>
@@ -32815,7 +32839,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C59" s="25" t="s">
         <v>3591</v>
@@ -32830,34 +32854,34 @@
         <v>3384</v>
       </c>
       <c r="G59" s="27" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="H59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L59" s="57" t="s">
         <v>3600</v>
       </c>
       <c r="M59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="O59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="P59" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q59" s="28"/>
     </row>
@@ -32866,10 +32890,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>3626</v>
@@ -32878,37 +32902,37 @@
         <v>3654</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="H60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="L60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="M60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="N60" s="57" t="s">
         <v>3600</v>
       </c>
       <c r="O60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="P60" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="Q60" s="28"/>
     </row>
@@ -32961,22 +32985,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>3778</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>3779</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>3781</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -32988,7 +33012,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -33008,7 +33032,7 @@
         <v>489</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G2" s="54" t="s">
         <v>3689</v>
@@ -33047,10 +33071,10 @@
         <v>3689</v>
       </c>
       <c r="H3" s="54" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="I3" s="54" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33071,7 +33095,7 @@
         <v>27</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>3626</v>
@@ -33080,10 +33104,10 @@
         <v>3689</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33104,10 +33128,10 @@
         <v>28</v>
       </c>
       <c r="E5" s="54" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="G5" s="54" t="s">
         <v>3689</v>
@@ -33116,7 +33140,7 @@
         <v>3599</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="J5" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33137,10 +33161,10 @@
         <v>27</v>
       </c>
       <c r="E6" s="54" t="s">
+        <v>3856</v>
+      </c>
+      <c r="F6" s="54" t="s">
         <v>3857</v>
-      </c>
-      <c r="F6" s="54" t="s">
-        <v>3858</v>
       </c>
       <c r="G6" s="54" t="s">
         <v>3689</v>
@@ -33149,7 +33173,7 @@
         <v>3599</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33170,10 +33194,10 @@
         <v>28</v>
       </c>
       <c r="E7" s="54" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="F7" s="54" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="G7" s="54" t="s">
         <v>3689</v>
@@ -33182,7 +33206,7 @@
         <v>3599</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33203,19 +33227,19 @@
         <v>4</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="G8" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="J8" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33236,19 +33260,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="54" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="J9" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33269,19 +33293,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="J10" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33302,19 +33326,19 @@
         <v>1</v>
       </c>
       <c r="E11" s="54" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>3689</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="J11" s="64" t="str">
         <f t="shared" si="0"/>
@@ -33332,10 +33356,10 @@
         <v>24</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="G12" s="54" t="s">
         <v>3689</v>
@@ -33374,10 +33398,10 @@
         <v>3626</v>
       </c>
       <c r="H13" s="54" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="I13" s="54" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="J13" s="54" t="str">
         <f t="shared" si="0"/>
@@ -33398,7 +33422,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>3689</v>
@@ -33472,22 +33496,22 @@
         <v>3400</v>
       </c>
       <c r="G1" s="86" t="s">
+        <v>4559</v>
+      </c>
+      <c r="H1" s="86" t="s">
         <v>4560</v>
       </c>
-      <c r="H1" s="86" t="s">
-        <v>4561</v>
-      </c>
       <c r="I1" s="56" t="s">
-        <v>4563</v>
+        <v>4562</v>
       </c>
       <c r="J1" s="56" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="K1" s="59" t="s">
         <v>3733</v>
       </c>
       <c r="L1" s="59" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -34680,16 +34704,16 @@
         <v>3443</v>
       </c>
       <c r="G32" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H32" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I32" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J32" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K32" s="81" t="s">
         <v>3600</v>
@@ -34719,16 +34743,16 @@
         <v>3410</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H33" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I33" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J33" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K33" s="81" t="s">
         <v>3600</v>
@@ -34758,16 +34782,16 @@
         <v>3414</v>
       </c>
       <c r="G34" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H34" s="81" t="s">
         <v>3600</v>
       </c>
       <c r="I34" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J34" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K34" s="81" t="s">
         <v>3600</v>
@@ -34797,22 +34821,22 @@
         <v>3440</v>
       </c>
       <c r="G35" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H35" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J35" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K35" s="57" t="s">
         <v>3600</v>
       </c>
       <c r="L35" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -34836,22 +34860,22 @@
         <v>3446</v>
       </c>
       <c r="G36" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H36" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I36" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J36" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K36" s="57" t="s">
         <v>3600</v>
       </c>
       <c r="L36" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -34875,22 +34899,22 @@
         <v>3448</v>
       </c>
       <c r="G37" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H37" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J37" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K37" s="57" t="s">
         <v>3600</v>
       </c>
       <c r="L37" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
     </row>
   </sheetData>
@@ -34924,22 +34948,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>3778</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>3779</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>3781</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -34951,7 +34975,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -34971,16 +34995,16 @@
         <v>489</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="H2" s="64" t="s">
         <v>3733</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="J2" s="64" t="str">
         <f t="shared" ref="J2:J9" si="0">"§"&amp;A2&amp;"."&amp;B2&amp;"."&amp;C2&amp;IF(ISBLANK(D2),"","."&amp;D2)</f>
@@ -35007,13 +35031,13 @@
         <v>3687</v>
       </c>
       <c r="G3" s="64" t="s">
+        <v>3809</v>
+      </c>
+      <c r="H3" s="64" t="s">
         <v>3810</v>
       </c>
-      <c r="H3" s="64" t="s">
-        <v>3811</v>
-      </c>
       <c r="I3" s="64" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -35034,19 +35058,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="64" t="s">
+        <v>3811</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>3865</v>
+      </c>
+      <c r="G4" s="64" t="s">
         <v>3812</v>
       </c>
-      <c r="F4" s="64" t="s">
-        <v>3866</v>
-      </c>
-      <c r="G4" s="64" t="s">
+      <c r="H4" s="64" t="s">
+        <v>3873</v>
+      </c>
+      <c r="I4" s="64" t="s">
         <v>3813</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>3874</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>3814</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -35067,16 +35091,16 @@
         <v>2</v>
       </c>
       <c r="E5" s="64" t="s">
+        <v>3811</v>
+      </c>
+      <c r="F5" s="64" t="s">
         <v>3812</v>
       </c>
-      <c r="F5" s="64" t="s">
-        <v>3813</v>
-      </c>
       <c r="G5" s="64" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="I5" s="64" t="s">
         <v>3733</v>
@@ -35100,19 +35124,19 @@
         <v>1</v>
       </c>
       <c r="E6" s="64" t="s">
+        <v>3814</v>
+      </c>
+      <c r="F6" s="64" t="s">
+        <v>3785</v>
+      </c>
+      <c r="G6" s="64" t="s">
+        <v>3809</v>
+      </c>
+      <c r="H6" s="64" t="s">
+        <v>3872</v>
+      </c>
+      <c r="I6" s="64" t="s">
         <v>3815</v>
-      </c>
-      <c r="F6" s="64" t="s">
-        <v>3786</v>
-      </c>
-      <c r="G6" s="64" t="s">
-        <v>3810</v>
-      </c>
-      <c r="H6" s="64" t="s">
-        <v>3873</v>
-      </c>
-      <c r="I6" s="64" t="s">
-        <v>3816</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -35133,19 +35157,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="64" t="s">
+        <v>3816</v>
+      </c>
+      <c r="F7" s="64" t="s">
+        <v>3801</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>3809</v>
+      </c>
+      <c r="H7" s="64" t="s">
         <v>3817</v>
       </c>
-      <c r="F7" s="64" t="s">
-        <v>3802</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>3810</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>3818</v>
-      </c>
       <c r="I7" s="64" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -35163,16 +35187,16 @@
         <v>22</v>
       </c>
       <c r="E8" s="64" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F8" s="64" t="s">
         <v>3819</v>
       </c>
-      <c r="F8" s="64" t="s">
-        <v>3820</v>
-      </c>
       <c r="G8" s="64" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="I8" s="64" t="s">
         <v>3517</v>
@@ -35199,13 +35223,13 @@
         <v>3733</v>
       </c>
       <c r="F9" s="66" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="G9" s="66" t="s">
         <v>3687</v>
       </c>
       <c r="H9" s="66" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="I9" s="66" t="s">
         <v>3439</v>
@@ -43947,22 +43971,22 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="65" t="s">
+        <v>3777</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>3778</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="C1" s="65" t="s">
         <v>3779</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="D1" s="65" t="s">
         <v>3780</v>
       </c>
-      <c r="D1" s="65" t="s">
-        <v>3781</v>
-      </c>
       <c r="E1" s="63" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="F1" s="63" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="G1" s="63" t="s">
         <v>1274</v>
@@ -43974,7 +43998,7 @@
         <v>1863</v>
       </c>
       <c r="J1" s="63" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -43991,16 +44015,16 @@
         <v>603</v>
       </c>
       <c r="F2" s="64" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="J2" s="64" t="str">
         <f t="shared" ref="J2:J24" si="0">"§"&amp;A2&amp;"."&amp;B2&amp;"."&amp;C2&amp;IF(ISBLANK(D2),"","."&amp;D2)</f>
@@ -44024,13 +44048,13 @@
         <v>3746</v>
       </c>
       <c r="G3" s="64" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="H3" s="64" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="I3" s="64" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="J3" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44051,16 +44075,16 @@
         <v>603</v>
       </c>
       <c r="F4" s="64" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="G4" s="64" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="J4" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44081,16 +44105,16 @@
         <v>603</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="H5" s="64" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="I5" s="64" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="J5" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44111,16 +44135,16 @@
         <v>603</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="H6" s="64" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="J6" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44141,16 +44165,16 @@
         <v>603</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="G7" s="64" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="I7" s="64" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="J7" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44171,16 +44195,16 @@
         <v>603</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="I8" s="64" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="J8" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44201,16 +44225,16 @@
         <v>603</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="H9" s="64" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="J9" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44231,19 +44255,19 @@
         <v>11</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="J10" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44264,19 +44288,19 @@
         <v>10</v>
       </c>
       <c r="E11" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F11" s="64" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G11" s="64" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="H11" s="64" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="I11" s="64" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="J11" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44297,19 +44321,19 @@
         <v>9</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="J12" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44330,19 +44354,19 @@
         <v>8</v>
       </c>
       <c r="E13" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G13" s="64" t="s">
+        <v>3783</v>
+      </c>
+      <c r="H13" s="64" t="s">
+        <v>3830</v>
+      </c>
+      <c r="I13" s="64" t="s">
         <v>3784</v>
-      </c>
-      <c r="H13" s="64" t="s">
-        <v>3831</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>3785</v>
       </c>
       <c r="J13" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44363,19 +44387,19 @@
         <v>6</v>
       </c>
       <c r="E14" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G14" s="64" t="s">
+        <v>3785</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>3833</v>
+      </c>
+      <c r="I14" s="64" t="s">
         <v>3786</v>
-      </c>
-      <c r="H14" s="64" t="s">
-        <v>3834</v>
-      </c>
-      <c r="I14" s="64" t="s">
-        <v>3787</v>
       </c>
       <c r="J14" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44396,19 +44420,19 @@
         <v>4</v>
       </c>
       <c r="E15" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="J15" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44429,19 +44453,19 @@
         <v>3</v>
       </c>
       <c r="E16" s="64" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="I16" s="64" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="J16" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44462,19 +44486,19 @@
         <v>37</v>
       </c>
       <c r="E17" s="64" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="J17" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44495,19 +44519,19 @@
         <v>36</v>
       </c>
       <c r="E18" s="64" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="G18" s="64" t="s">
+        <v>3789</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>3835</v>
+      </c>
+      <c r="I18" s="64" t="s">
         <v>3790</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>3836</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>3791</v>
       </c>
       <c r="J18" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44528,19 +44552,19 @@
         <v>35</v>
       </c>
       <c r="E19" s="64" t="s">
+        <v>3765</v>
+      </c>
+      <c r="F19" s="64" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G19" s="64" t="s">
+        <v>3798</v>
+      </c>
+      <c r="H19" s="64" t="s">
         <v>3766</v>
       </c>
-      <c r="F19" s="64" t="s">
-        <v>3771</v>
-      </c>
-      <c r="G19" s="64" t="s">
-        <v>3799</v>
-      </c>
-      <c r="H19" s="64" t="s">
-        <v>3767</v>
-      </c>
       <c r="I19" s="64" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="J19" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44561,16 +44585,16 @@
         <v>34</v>
       </c>
       <c r="E20" s="64" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="G20" s="64" t="s">
         <v>3746</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="I20" s="64" t="s">
         <v>3555</v>
@@ -44594,13 +44618,13 @@
         <v>603</v>
       </c>
       <c r="F21" s="66" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="G21" s="66" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="I21" s="64" t="s">
         <v>2462</v>
@@ -44624,16 +44648,16 @@
         <v>2462</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="G22" s="66" t="s">
+        <v>3861</v>
+      </c>
+      <c r="H22" s="66" t="s">
+        <v>3874</v>
+      </c>
+      <c r="I22" s="66" t="s">
         <v>3862</v>
-      </c>
-      <c r="H22" s="66" t="s">
-        <v>3875</v>
-      </c>
-      <c r="I22" s="66" t="s">
-        <v>3863</v>
       </c>
       <c r="J22" s="66" t="str">
         <f>"§"&amp;A22&amp;"."&amp;B22&amp;"."&amp;C22&amp;IF(ISBLANK(D22),"","."&amp;D22)</f>
@@ -44657,16 +44681,16 @@
         <v>2462</v>
       </c>
       <c r="F23" s="64" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="G23" s="64" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="H23" s="64" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="I23" s="64" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="J23" s="64" t="str">
         <f>"§"&amp;A23&amp;"."&amp;B23&amp;"."&amp;C23&amp;IF(ISBLANK(D23),"","."&amp;D23)</f>
@@ -44684,19 +44708,19 @@
         <v>47</v>
       </c>
       <c r="E24" s="66" t="s">
+        <v>3867</v>
+      </c>
+      <c r="F24" s="64" t="s">
+        <v>3788</v>
+      </c>
+      <c r="G24" s="66" t="s">
+        <v>3802</v>
+      </c>
+      <c r="H24" s="66" t="s">
         <v>3868</v>
       </c>
-      <c r="F24" s="64" t="s">
-        <v>3789</v>
-      </c>
-      <c r="G24" s="66" t="s">
-        <v>3803</v>
-      </c>
-      <c r="H24" s="66" t="s">
+      <c r="I24" s="64" t="s">
         <v>3869</v>
-      </c>
-      <c r="I24" s="64" t="s">
-        <v>3870</v>
       </c>
       <c r="J24" s="64" t="str">
         <f t="shared" si="0"/>
@@ -44714,19 +44738,19 @@
         <v>16</v>
       </c>
       <c r="E25" s="64" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="F25" s="66" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="G25" s="66" t="s">
+        <v>3861</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>3874</v>
+      </c>
+      <c r="I25" s="66" t="s">
         <v>3862</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>3875</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>3863</v>
       </c>
       <c r="J25" s="66" t="str">
         <f>"§"&amp;A25&amp;"."&amp;B25&amp;"."&amp;C25&amp;IF(ISBLANK(D25),"","."&amp;D25)</f>
@@ -44746,10 +44770,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B87372D-7E3F-4CE1-9CFA-619F49901691}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44758,16 +44782,16 @@
     <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" style="3" customWidth="1"/>
     <col min="4" max="4" width="55.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="70" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="70" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="70" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="70" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="70" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" style="70" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="70" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="70" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="71" customFormat="1" ht="63">
+    <row r="1" spans="1:12" s="71" customFormat="1" ht="63">
       <c r="A1" s="85" t="s">
         <v>2856</v>
       </c>
@@ -44783,288 +44807,312 @@
       <c r="E1" s="61" t="s">
         <v>3400</v>
       </c>
-      <c r="F1" s="88" t="s">
+      <c r="F1" s="62" t="s">
+        <v>4566</v>
+      </c>
+      <c r="G1" s="88" t="s">
+        <v>4563</v>
+      </c>
+      <c r="H1" s="88" t="s">
         <v>4564</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="I1" s="62" t="s">
+        <v>3761</v>
+      </c>
+      <c r="J1" s="62" t="s">
+        <v>3763</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>3765</v>
+      </c>
+      <c r="L1" s="62" t="s">
+        <v>3767</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="93">
+        <v>1</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>3748</v>
+      </c>
+      <c r="D2" s="94" t="s">
+        <v>3559</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>3560</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="93">
+        <v>2</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>3677</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E3" s="94" t="s">
+        <v>3532</v>
+      </c>
+      <c r="F3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K3" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L3" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="93">
+        <v>3</v>
+      </c>
+      <c r="B4" s="93" t="s">
+        <v>3756</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>3741</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>3545</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>3546</v>
+      </c>
+      <c r="F4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K4" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L4" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="93">
+        <v>4</v>
+      </c>
+      <c r="B5" s="93" t="s">
         <v>4565</v>
       </c>
-      <c r="H1" s="62" t="s">
-        <v>3762</v>
-      </c>
-      <c r="I1" s="62" t="s">
-        <v>3764</v>
-      </c>
-      <c r="J1" s="62" t="s">
-        <v>3766</v>
-      </c>
-      <c r="K1" s="62" t="s">
-        <v>3768</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75">
-      <c r="A2" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" s="89" t="s">
+      <c r="C5" s="93" t="s">
+        <v>3738</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>3540</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K5" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L5" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="93">
+        <v>5</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>3755</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D6" s="94" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>3542</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K6" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L6" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="93">
+        <v>6</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>3750</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D7" s="94" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>3536</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K7" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L7" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="93">
+        <v>7</v>
+      </c>
+      <c r="B8" s="93" t="s">
         <v>562</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C8" s="93" t="s">
         <v>3628</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D8" s="94" t="s">
         <v>3533</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E8" s="94" t="s">
         <v>3534</v>
       </c>
-      <c r="F2" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G2" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H2" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J2" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K2" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75">
-      <c r="A3" s="89">
-        <v>2</v>
-      </c>
-      <c r="B3" s="89" t="s">
-        <v>3750</v>
-      </c>
-      <c r="C3" s="89" t="s">
-        <v>3736</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>3535</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>3536</v>
-      </c>
-      <c r="F3" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G3" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H3" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I3" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J3" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K3" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75">
-      <c r="A4" s="89">
-        <v>3</v>
-      </c>
-      <c r="B4" s="89" t="s">
-        <v>3755</v>
-      </c>
-      <c r="C4" s="89" t="s">
-        <v>3738</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>3539</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>3540</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I4" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J4" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K4" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75">
-      <c r="A5" s="89">
-        <v>4</v>
-      </c>
-      <c r="B5" s="89" t="s">
-        <v>3756</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>3739</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>3541</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>3542</v>
-      </c>
-      <c r="F5" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G5" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H5" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I5" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J5" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K5" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75">
-      <c r="A6" s="89">
-        <v>5</v>
-      </c>
-      <c r="B6" s="89" t="s">
-        <v>3757</v>
-      </c>
-      <c r="C6" s="89" t="s">
-        <v>3741</v>
-      </c>
-      <c r="D6" s="90" t="s">
-        <v>3545</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>3546</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I6" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J6" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K6" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75">
-      <c r="A7" s="89">
-        <v>6</v>
-      </c>
-      <c r="B7" s="89" t="s">
-        <v>3758</v>
-      </c>
-      <c r="C7" s="89" t="s">
-        <v>3677</v>
-      </c>
-      <c r="D7" s="90" t="s">
-        <v>3531</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>3532</v>
-      </c>
-      <c r="F7" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G7" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H7" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I7" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J7" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K7" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75">
-      <c r="A8" s="89">
-        <v>7</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>3753</v>
-      </c>
-      <c r="C8" s="89" t="s">
-        <v>3742</v>
-      </c>
-      <c r="D8" s="90" t="s">
-        <v>3547</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>3548</v>
-      </c>
-      <c r="F8" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="G8" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="J8" s="77" t="s">
-        <v>3600</v>
-      </c>
-      <c r="K8" s="77" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75">
+      <c r="F8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="I8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="K8" s="95" t="s">
+        <v>3600</v>
+      </c>
+      <c r="L8" s="95" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
       <c r="A9" s="89">
         <v>8</v>
       </c>
       <c r="B9" s="89" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="C9" s="89" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="E9" s="90" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="G9" s="77" t="s">
         <v>3600</v>
@@ -45081,25 +45129,28 @@
       <c r="K9" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75">
+      <c r="L9" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75">
       <c r="A10" s="89">
         <v>9</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>3763</v>
+        <v>3754</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>3748</v>
+        <v>3743</v>
       </c>
       <c r="D10" s="90" t="s">
-        <v>3559</v>
+        <v>3549</v>
       </c>
       <c r="E10" s="90" t="s">
-        <v>3560</v>
+        <v>3550</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="G10" s="77" t="s">
         <v>3600</v>
@@ -45116,8 +45167,11 @@
       <c r="K10" s="77" t="s">
         <v>3600</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75">
+      <c r="L10" s="77" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -45134,10 +45188,10 @@
         <v>3558</v>
       </c>
       <c r="F11" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G11" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H11" s="81" t="s">
         <v>3600</v>
@@ -45146,13 +45200,16 @@
         <v>3600</v>
       </c>
       <c r="J11" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K11" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L11" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -45169,10 +45226,10 @@
         <v>3530</v>
       </c>
       <c r="F12" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G12" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H12" s="81" t="s">
         <v>3600</v>
@@ -45181,13 +45238,16 @@
         <v>3600</v>
       </c>
       <c r="J12" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K12" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L12" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -45204,10 +45264,10 @@
         <v>3538</v>
       </c>
       <c r="F13" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G13" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H13" s="81" t="s">
         <v>3600</v>
@@ -45216,13 +45276,16 @@
         <v>3600</v>
       </c>
       <c r="J13" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K13" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L13" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -45239,10 +45302,10 @@
         <v>3544</v>
       </c>
       <c r="F14" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G14" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H14" s="81" t="s">
         <v>3600</v>
@@ -45251,18 +45314,21 @@
         <v>3600</v>
       </c>
       <c r="J14" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K14" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L14" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="91">
         <v>14</v>
       </c>
       <c r="B15" s="91" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C15" s="91" t="s">
         <v>3744</v>
@@ -45274,10 +45340,10 @@
         <v>3552</v>
       </c>
       <c r="F15" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G15" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H15" s="81" t="s">
         <v>3600</v>
@@ -45286,18 +45352,21 @@
         <v>3600</v>
       </c>
       <c r="J15" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K15" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L15" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="91">
         <v>15</v>
       </c>
       <c r="B16" s="91" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="C16" s="91" t="s">
         <v>3745</v>
@@ -45309,10 +45378,10 @@
         <v>3554</v>
       </c>
       <c r="F16" s="81" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G16" s="81" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="H16" s="81" t="s">
         <v>3600</v>
@@ -45321,18 +45390,21 @@
         <v>3600</v>
       </c>
       <c r="J16" s="81" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="K16" s="81" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L16" s="81" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>3746</v>
@@ -45344,62 +45416,68 @@
         <v>3556</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G17" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H17" s="57" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="I17" s="57" t="s">
-        <v>4471</v>
+        <v>3600</v>
       </c>
       <c r="J17" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="K17" s="57" t="s">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75">
+        <v>4470</v>
+      </c>
+      <c r="L17" s="57" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="G18" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="H18" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="I18" s="57" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="J18" s="57" t="s">
-        <v>3600</v>
+        <v>4470</v>
       </c>
       <c r="K18" s="57" t="s">
-        <v>4471</v>
+        <v>3600</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>4470</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H11">
-    <sortCondition ref="B1:B11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L18">
+    <sortCondition ref="A1:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -45439,13 +45517,13 @@
         <v>3356</v>
       </c>
       <c r="B2" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C2" t="s">
         <v>3862</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3863</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3864</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -45453,13 +45531,13 @@
         <v>3356</v>
       </c>
       <c r="B3" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="C3" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="D3" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
     </row>
   </sheetData>
@@ -45469,258 +45547,390 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D644862-372A-46B8-B7D9-3EE4DB7DC237}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="73" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="73" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:8" ht="63">
+      <c r="A1" s="85" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1" s="61" t="s">
         <v>1274</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="C1" s="61" t="s">
         <v>1863</v>
       </c>
-      <c r="C1" s="61" t="s">
-        <v>3769</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>3826</v>
+      <c r="D1" s="61" t="s">
+        <v>3768</v>
       </c>
       <c r="E1" s="62" t="s">
-        <v>3827</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F1" s="88" t="s">
+        <v>4567</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>3775</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3894</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3875</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3876</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3892</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3893</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H4" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3677</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3888</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H5" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3739</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3890</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3891</v>
+      </c>
+      <c r="E6" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H6" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3886</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3887</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3883</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3884</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G8" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>3902</v>
       </c>
-      <c r="B2" t="s">
-        <v>3876</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3877</v>
-      </c>
-      <c r="D2" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E2" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C9" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3882</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G9" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H9" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3908</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3899</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3900</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H10" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3897</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G11" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H11" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3674</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G12" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H12" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>3672</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C13" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D13" t="s">
         <v>3879</v>
       </c>
-      <c r="C3" t="s">
-        <v>3880</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E3" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>3674</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3413</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3881</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>3903</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3882</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3883</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E5" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>3904</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3884</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3885</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>3905</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3887</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3888</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E7" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>3677</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3889</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3890</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E8" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>3739</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3891</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3892</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>3906</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3893</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3894</v>
-      </c>
-      <c r="D10" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E10" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>3907</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3895</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E13" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="73" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3800</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3803</v>
+      </c>
+      <c r="D14" t="s">
         <v>3896</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>3801</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3804</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3897</v>
-      </c>
-      <c r="D12" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E12" s="73"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>3908</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3898</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3899</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E13" s="73" t="s">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>3909</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3900</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3901</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>3600</v>
+      <c r="E14" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>4470</v>
+      </c>
+      <c r="G14" s="73" t="s">
+        <v>3600</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>4470</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H15">
+    <sortCondition ref="A1:A15"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -45755,13 +45965,13 @@
         <v>1863</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="E1" s="61" t="s">
+        <v>3823</v>
+      </c>
+      <c r="F1" s="61" t="s">
         <v>3824</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>3825</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -45769,13 +45979,13 @@
         <v>3707</v>
       </c>
       <c r="B2" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="C2" t="s">
+        <v>3909</v>
+      </c>
+      <c r="D2" t="s">
         <v>3910</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3911</v>
       </c>
       <c r="E2" s="73" t="s">
         <v>3600</v>
@@ -45786,16 +45996,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3953</v>
+        <v>3952</v>
       </c>
       <c r="B3" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C3" t="s">
         <v>3912</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3913</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3914</v>
       </c>
       <c r="E3" s="73" t="s">
         <v>3600</v>
@@ -45806,13 +46016,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
+        <v>3914</v>
+      </c>
+      <c r="C4" t="s">
         <v>3915</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3916</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3917</v>
       </c>
       <c r="E4" s="73" t="s">
         <v>3600</v>
@@ -45823,16 +46033,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3954</v>
+        <v>3953</v>
       </c>
       <c r="B5" t="s">
+        <v>3917</v>
+      </c>
+      <c r="C5" t="s">
         <v>3918</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3919</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3920</v>
       </c>
       <c r="E5" s="73" t="s">
         <v>3600</v>
@@ -45843,16 +46053,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>3955</v>
+        <v>3954</v>
       </c>
       <c r="B6" t="s">
+        <v>3920</v>
+      </c>
+      <c r="C6" t="s">
         <v>3921</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3922</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3923</v>
       </c>
       <c r="E6" s="73" t="s">
         <v>3600</v>
@@ -45863,16 +46073,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>3957</v>
+        <v>3956</v>
       </c>
       <c r="B7" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C7" t="s">
         <v>3924</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>3925</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3926</v>
       </c>
       <c r="E7" s="73" t="s">
         <v>3600</v>
@@ -45886,13 +46096,13 @@
         <v>562</v>
       </c>
       <c r="B8" t="s">
+        <v>3926</v>
+      </c>
+      <c r="C8" t="s">
         <v>3927</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>3928</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3929</v>
       </c>
       <c r="E8" s="73" t="s">
         <v>3600</v>
@@ -45903,16 +46113,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>3958</v>
+        <v>3957</v>
       </c>
       <c r="B9" t="s">
+        <v>3929</v>
+      </c>
+      <c r="C9" t="s">
         <v>3930</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>3931</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3932</v>
       </c>
       <c r="E9" s="73" t="s">
         <v>3600</v>
@@ -45923,16 +46133,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>3959</v>
+        <v>3958</v>
       </c>
       <c r="B10" t="s">
+        <v>3932</v>
+      </c>
+      <c r="C10" t="s">
         <v>3933</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>3934</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3935</v>
       </c>
       <c r="E10" s="73" t="s">
         <v>3600</v>
@@ -45943,16 +46153,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>3960</v>
+        <v>3959</v>
       </c>
       <c r="B11" t="s">
+        <v>3935</v>
+      </c>
+      <c r="C11" t="s">
         <v>3936</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>3937</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3938</v>
       </c>
       <c r="E11" s="73" t="s">
         <v>3600</v>
@@ -45963,13 +46173,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
+        <v>3938</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D12" t="s">
         <v>3939</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3791</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3940</v>
       </c>
       <c r="E12" s="73" t="s">
         <v>3600</v>
@@ -45978,16 +46188,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>3962</v>
+        <v>3961</v>
       </c>
       <c r="B13" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C13" t="s">
         <v>3941</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>3942</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3943</v>
       </c>
       <c r="E13" s="73" t="s">
         <v>3600</v>
@@ -46001,13 +46211,13 @@
         <v>3729</v>
       </c>
       <c r="B14" t="s">
+        <v>3943</v>
+      </c>
+      <c r="C14" t="s">
         <v>3944</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>3945</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3946</v>
       </c>
       <c r="E14" s="73" t="s">
         <v>3600</v>
@@ -46018,16 +46228,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>3961</v>
+        <v>3960</v>
       </c>
       <c r="B15" t="s">
+        <v>3946</v>
+      </c>
+      <c r="C15" t="s">
         <v>3947</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>3948</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3949</v>
       </c>
       <c r="E15" s="73" t="s">
         <v>3600</v>
@@ -46038,16 +46248,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>3956</v>
+        <v>3955</v>
       </c>
       <c r="B16" t="s">
+        <v>3949</v>
+      </c>
+      <c r="C16" t="s">
         <v>3950</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>3951</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3952</v>
       </c>
       <c r="E16" s="73" t="s">
         <v>3600</v>
@@ -46093,86 +46303,86 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4019</v>
+        <v>4018</v>
       </c>
       <c r="B2" t="s">
+        <v>3962</v>
+      </c>
+      <c r="C2" t="s">
         <v>3963</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3964</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3965</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4023</v>
+        <v>4022</v>
       </c>
       <c r="B3" t="s">
+        <v>3965</v>
+      </c>
+      <c r="C3" t="s">
         <v>3966</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>3967</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3968</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4024</v>
+        <v>4023</v>
       </c>
       <c r="B4" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C4" t="s">
         <v>3969</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>3970</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3971</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="B5" t="s">
-        <v>3886</v>
+        <v>3885</v>
       </c>
       <c r="C5" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D5" t="s">
         <v>3972</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3973</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4025</v>
+        <v>4024</v>
       </c>
       <c r="B6" t="s">
+        <v>3973</v>
+      </c>
+      <c r="C6" t="s">
         <v>3974</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>3975</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3976</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4020</v>
+        <v>4019</v>
       </c>
       <c r="B7" t="s">
+        <v>3976</v>
+      </c>
+      <c r="C7" t="s">
         <v>3977</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>3978</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3979</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -46183,220 +46393,220 @@
         <v>1924</v>
       </c>
       <c r="C8" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D8" t="s">
         <v>3980</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3981</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4026</v>
+        <v>4025</v>
       </c>
       <c r="B9" t="s">
+        <v>3981</v>
+      </c>
+      <c r="C9" t="s">
         <v>3982</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>3983</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3984</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4021</v>
+        <v>4020</v>
       </c>
       <c r="B10" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C10" t="s">
         <v>3985</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>3986</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3987</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4027</v>
+        <v>4026</v>
       </c>
       <c r="B11" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C11" t="s">
         <v>3988</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>3989</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3990</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>4028</v>
+        <v>4027</v>
       </c>
       <c r="B12" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C12" t="s">
         <v>3991</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>3992</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3993</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="B13" t="s">
         <v>3516</v>
       </c>
       <c r="C13" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="D13" t="s">
-        <v>3994</v>
+        <v>3993</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>4029</v>
+        <v>4028</v>
       </c>
       <c r="B14" t="s">
+        <v>3994</v>
+      </c>
+      <c r="C14" t="s">
         <v>3995</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>3996</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3997</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="B15" t="s">
         <v>3444</v>
       </c>
       <c r="C15" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="D15" t="s">
-        <v>3998</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="B16" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C16" t="s">
         <v>3999</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>4000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4001</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>4030</v>
+        <v>4029</v>
       </c>
       <c r="B17" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C17" t="s">
         <v>4002</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>4003</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4004</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="B18" t="s">
+        <v>4004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3776</v>
+      </c>
+      <c r="D18" t="s">
         <v>4005</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3777</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4006</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="B19" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3786</v>
+      </c>
+      <c r="D19" t="s">
         <v>4007</v>
-      </c>
-      <c r="C19" t="s">
-        <v>3787</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4008</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="B20" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D20" t="s">
         <v>4009</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3793</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4010</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="B21" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3773</v>
+      </c>
+      <c r="D21" t="s">
         <v>4011</v>
-      </c>
-      <c r="C21" t="s">
-        <v>3774</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4012</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>4031</v>
+        <v>4030</v>
       </c>
       <c r="B22" t="s">
+        <v>4012</v>
+      </c>
+      <c r="C22" t="s">
         <v>4013</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>4014</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4015</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>4032</v>
+        <v>4031</v>
       </c>
       <c r="B23" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C23" t="s">
         <v>4016</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>4017</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4018</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -46404,7 +46614,7 @@
         <v>856</v>
       </c>
       <c r="B24" t="s">
-        <v>4034</v>
+        <v>4033</v>
       </c>
     </row>
   </sheetData>
@@ -46443,10 +46653,10 @@
         <v>1863</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>4035</v>
+        <v>4034</v>
       </c>
       <c r="F1" s="24" t="s">
         <v>0</v>
@@ -46454,19 +46664,19 @@
     </row>
     <row r="2" spans="1:6" ht="63">
       <c r="A2" s="3" t="s">
-        <v>4253</v>
+        <v>4252</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>4102</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>4359</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>4103</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
@@ -46474,19 +46684,19 @@
     </row>
     <row r="3" spans="1:6" ht="31.5">
       <c r="A3" s="3" t="s">
-        <v>4286</v>
+        <v>4285</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>4185</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>4393</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>4186</v>
-      </c>
-      <c r="D3" s="69" t="s">
-        <v>4394</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>4187</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>3</v>
@@ -46497,16 +46707,16 @@
         <v>1222</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>4210</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>4404</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>4211</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>4405</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>4212</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
@@ -46514,62 +46724,62 @@
     </row>
     <row r="5" spans="1:6" ht="31.5">
       <c r="A5" s="3" t="s">
-        <v>4255</v>
+        <v>4254</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>4360</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>4106</v>
       </c>
-      <c r="D5" s="69" t="s">
-        <v>4361</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4107</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5">
       <c r="A6" s="3" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>4107</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>4361</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>4108</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>4362</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>4109</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>4283</v>
+        <v>4282</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>4390</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>4178</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>4391</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>4179</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75">
@@ -46580,73 +46790,73 @@
         <v>1832</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>4214</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>4406</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>4215</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>4407</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4216</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5">
       <c r="A9" s="3" t="s">
-        <v>4236</v>
+        <v>4235</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4322</v>
+        <v>4321</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>4063</v>
+      </c>
+      <c r="D9" s="69" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>4064</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>4343</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>4065</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.5">
       <c r="A10" s="3" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>4159</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>4423</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>4160</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="F10" s="3" t="s">
         <v>4424</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>4161</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>4425</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="3" t="s">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>4320</v>
+        <v>4319</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>4069</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>4345</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>4070</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>4346</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>4071</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>990</v>
@@ -46654,19 +46864,19 @@
     </row>
     <row r="12" spans="1:6" ht="31.5">
       <c r="A12" s="3" t="s">
-        <v>4267</v>
+        <v>4266</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>4131</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>4432</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>4132</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>4433</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4133</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>990</v>
@@ -46674,442 +46884,442 @@
     </row>
     <row r="13" spans="1:6" ht="47.25">
       <c r="A13" s="3" t="s">
-        <v>4228</v>
+        <v>4227</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>4039</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>4040</v>
       </c>
-      <c r="D13" s="69" t="s">
-        <v>4333</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4041</v>
-      </c>
       <c r="F13" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="47.25">
       <c r="A14" s="3" t="s">
-        <v>4249</v>
+        <v>4248</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>4093</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>4094</v>
       </c>
-      <c r="D14" s="69" t="s">
-        <v>4355</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>4095</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25">
       <c r="A15" s="3" t="s">
-        <v>4229</v>
+        <v>4228</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>4041</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>4333</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>4042</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>4334</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>4043</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25">
       <c r="A16" s="3" t="s">
-        <v>4258</v>
+        <v>4257</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>4111</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>4363</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>4112</v>
       </c>
-      <c r="D16" s="69" t="s">
-        <v>4364</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>4113</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="3" t="s">
-        <v>4230</v>
+        <v>4229</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>4043</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>4044</v>
       </c>
-      <c r="D17" s="69" t="s">
-        <v>4335</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>4045</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="47.25">
       <c r="A18" s="3" t="s">
-        <v>4271</v>
+        <v>4270</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>4143</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>4375</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>4144</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>4376</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>4145</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="63">
       <c r="A19" s="3" t="s">
-        <v>4285</v>
+        <v>4284</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>4183</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>4392</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>4184</v>
       </c>
-      <c r="D19" s="69" t="s">
-        <v>4393</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>4185</v>
-      </c>
       <c r="F19" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="47.25">
       <c r="A20" s="3" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>4189</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>4395</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>4190</v>
       </c>
-      <c r="D20" s="69" t="s">
-        <v>4396</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>4191</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="31.5">
       <c r="A21" s="3" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>4191</v>
+      </c>
+      <c r="D21" s="69" t="s">
+        <v>4396</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>4192</v>
       </c>
-      <c r="D21" s="69" t="s">
-        <v>4397</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>4193</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="78.75">
       <c r="A22" s="3" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>4196</v>
+      </c>
+      <c r="D22" s="69" t="s">
+        <v>4399</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>4197</v>
       </c>
-      <c r="D22" s="69" t="s">
-        <v>4400</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>4198</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="47.25">
       <c r="A23" s="3" t="s">
-        <v>4300</v>
+        <v>4299</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>4218</v>
+      </c>
+      <c r="D23" s="69" t="s">
+        <v>4407</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>4219</v>
       </c>
-      <c r="D23" s="69" t="s">
-        <v>4408</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>4220</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45">
       <c r="A24" s="3" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>4458</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>4193</v>
+      </c>
+      <c r="D24" s="69" t="s">
+        <v>4397</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>4459</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>4194</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>4398</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>4460</v>
-      </c>
       <c r="F24" s="3" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>4246</v>
+        <v>4245</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>4087</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>4449</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>4088</v>
       </c>
-      <c r="D25" s="69" t="s">
-        <v>4450</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>4089</v>
-      </c>
       <c r="F25" s="3" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="45">
       <c r="A26" s="3" t="s">
-        <v>4324</v>
+        <v>4323</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>4443</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>4444</v>
-      </c>
       <c r="E26" s="6" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>4442</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>4327</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>4328</v>
-      </c>
       <c r="C27" s="2" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>4440</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
+        <v>4461</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>4441</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4462</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>4442</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="31.5">
       <c r="A28" s="3" t="s">
-        <v>4243</v>
+        <v>4242</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>4349</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>4082</v>
       </c>
-      <c r="D28" s="69" t="s">
-        <v>4350</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>4083</v>
-      </c>
       <c r="F28" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.5">
       <c r="A29" s="3" t="s">
-        <v>4244</v>
+        <v>4243</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>4083</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>4084</v>
       </c>
-      <c r="D29" s="69" t="s">
-        <v>4351</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>4085</v>
-      </c>
       <c r="F29" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="31.5">
       <c r="A30" s="3" t="s">
-        <v>4257</v>
+        <v>4256</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>4362</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>4110</v>
       </c>
-      <c r="D30" s="69" t="s">
-        <v>4363</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>4111</v>
-      </c>
       <c r="F30" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="31.5">
       <c r="A31" s="3" t="s">
-        <v>4259</v>
+        <v>4258</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>4364</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>4114</v>
       </c>
-      <c r="D31" s="69" t="s">
-        <v>4365</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>4115</v>
-      </c>
       <c r="F31" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="31.5">
       <c r="A32" s="3" t="s">
-        <v>4260</v>
+        <v>4259</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>4115</v>
+      </c>
+      <c r="D32" s="69" t="s">
+        <v>4365</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>4116</v>
       </c>
-      <c r="D32" s="69" t="s">
-        <v>4366</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>4117</v>
-      </c>
       <c r="F32" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="31.5">
       <c r="A33" s="3" t="s">
-        <v>4261</v>
+        <v>4260</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D33" s="69" t="s">
+        <v>4366</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>4118</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>4367</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>4119</v>
-      </c>
       <c r="F33" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="31.5">
       <c r="A34" s="3" t="s">
-        <v>4262</v>
+        <v>4261</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>4119</v>
+      </c>
+      <c r="D34" s="69" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>4120</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>4368</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>4121</v>
-      </c>
       <c r="F34" s="3" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
@@ -47117,139 +47327,139 @@
         <v>373</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>4377</v>
+      </c>
+      <c r="E35" s="6" t="s">
         <v>4150</v>
       </c>
-      <c r="D35" s="69" t="s">
-        <v>4378</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>4151</v>
-      </c>
       <c r="F35" s="3" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="3" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>4194</v>
+      </c>
+      <c r="D36" s="69" t="s">
+        <v>4398</v>
+      </c>
+      <c r="E36" s="6" t="s">
         <v>4195</v>
       </c>
-      <c r="D36" s="69" t="s">
-        <v>4399</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>4196</v>
-      </c>
       <c r="F36" s="3" t="s">
-        <v>4432</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.5">
       <c r="A37" s="3" t="s">
-        <v>4266</v>
+        <v>4265</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D37" s="69" t="s">
+        <v>4447</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>4130</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="F37" s="3" t="s">
         <v>4448</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>4131</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>4449</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="31.5">
       <c r="A38" s="3" t="s">
-        <v>4264</v>
+        <v>4263</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D38" s="69" t="s">
+        <v>4446</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>4126</v>
       </c>
-      <c r="D38" s="69" t="s">
-        <v>4447</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>4127</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>4449</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.5">
       <c r="A39" s="3" t="s">
-        <v>4241</v>
+        <v>4240</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>4073</v>
+      </c>
+      <c r="D39" s="69" t="s">
+        <v>4428</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>4074</v>
       </c>
-      <c r="D39" s="69" t="s">
-        <v>4429</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>4075</v>
-      </c>
       <c r="F39" s="3" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="3" t="s">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>4147</v>
+      </c>
+      <c r="D40" s="69" t="s">
+        <v>4429</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>4148</v>
       </c>
-      <c r="D40" s="69" t="s">
-        <v>4430</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>4149</v>
-      </c>
       <c r="F40" s="3" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="33.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>4216</v>
+      </c>
+      <c r="D41" s="69" t="s">
+        <v>4427</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>4217</v>
       </c>
-      <c r="D41" s="69" t="s">
-        <v>4428</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>4218</v>
-      </c>
       <c r="F41" s="3" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="31.5">
@@ -47260,36 +47470,36 @@
         <v>1832</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>4187</v>
+      </c>
+      <c r="D42" s="69" t="s">
+        <v>4394</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>4188</v>
       </c>
-      <c r="D42" s="69" t="s">
-        <v>4395</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>4189</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="31.5">
       <c r="A43" s="3" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>4368</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>4122</v>
       </c>
-      <c r="D43" s="69" t="s">
-        <v>4369</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>4123</v>
-      </c>
       <c r="F43" s="3" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75">
@@ -47300,36 +47510,36 @@
         <v>1832</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>4123</v>
+      </c>
+      <c r="D44" s="69" t="s">
+        <v>4369</v>
+      </c>
+      <c r="E44" s="6" t="s">
         <v>4124</v>
       </c>
-      <c r="D44" s="69" t="s">
-        <v>4370</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>4125</v>
-      </c>
       <c r="F44" s="3" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.5">
       <c r="A45" s="3" t="s">
-        <v>4254</v>
+        <v>4253</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>4103</v>
+      </c>
+      <c r="D45" s="69" t="s">
+        <v>4359</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>4104</v>
       </c>
-      <c r="D45" s="69" t="s">
-        <v>4360</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>4105</v>
-      </c>
       <c r="F45" s="3" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.5">
@@ -47340,16 +47550,16 @@
         <v>1832</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>4181</v>
+      </c>
+      <c r="D46" s="69" t="s">
+        <v>4422</v>
+      </c>
+      <c r="E46" s="6" t="s">
         <v>4182</v>
       </c>
-      <c r="D46" s="69" t="s">
-        <v>4423</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>4183</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.5">
@@ -47360,56 +47570,56 @@
         <v>1832</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>4049</v>
+      </c>
+      <c r="D47" s="69" t="s">
+        <v>4430</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>4050</v>
       </c>
-      <c r="D47" s="69" t="s">
-        <v>4431</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>4051</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="31.5">
       <c r="A48" s="3" t="s">
-        <v>4240</v>
+        <v>4239</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C48" s="6" t="s">
+        <v>4071</v>
+      </c>
+      <c r="D48" s="69" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>4072</v>
       </c>
-      <c r="D48" s="69" t="s">
-        <v>4347</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>4073</v>
-      </c>
       <c r="F48" s="3" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="31.5">
       <c r="A49" s="3" t="s">
-        <v>4252</v>
+        <v>4251</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>4099</v>
+      </c>
+      <c r="D49" s="69" t="s">
+        <v>4357</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>4100</v>
       </c>
-      <c r="D49" s="69" t="s">
-        <v>4358</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>4101</v>
-      </c>
       <c r="F49" s="3" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75">
@@ -47417,156 +47627,156 @@
         <v>1089</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D50" s="69" t="s">
+        <v>4374</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>4142</v>
       </c>
-      <c r="D50" s="69" t="s">
-        <v>4375</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>4143</v>
-      </c>
       <c r="F50" s="3" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="31.5">
       <c r="A51" s="3" t="s">
-        <v>4248</v>
+        <v>4247</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>4091</v>
+      </c>
+      <c r="D51" s="69" t="s">
+        <v>4353</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>4092</v>
       </c>
-      <c r="D51" s="69" t="s">
-        <v>4354</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>4093</v>
-      </c>
       <c r="F51" s="3" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="30">
       <c r="A52" s="3" t="s">
-        <v>4325</v>
+        <v>4324</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>4438</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>4439</v>
-      </c>
       <c r="E52" s="6" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="31.5">
       <c r="A53" s="3" t="s">
-        <v>4323</v>
+        <v>4322</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>4435</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="69" t="s">
         <v>4436</v>
       </c>
-      <c r="D53" s="69" t="s">
-        <v>4437</v>
-      </c>
       <c r="E53" s="6" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="31.5">
       <c r="A54" s="3" t="s">
-        <v>4276</v>
+        <v>4275</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="C54" s="6" t="s">
+        <v>4155</v>
+      </c>
+      <c r="D54" s="69" t="s">
+        <v>4380</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>4156</v>
       </c>
-      <c r="D54" s="69" t="s">
-        <v>4381</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>4157</v>
-      </c>
       <c r="F54" s="3" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="47.25">
       <c r="A55" s="3" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="C55" s="6" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D55" s="69" t="s">
+        <v>4381</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>4158</v>
       </c>
-      <c r="D55" s="69" t="s">
-        <v>4382</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>4159</v>
-      </c>
       <c r="F55" s="3" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="31.5">
       <c r="A56" s="3" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>4200</v>
+      </c>
+      <c r="D56" s="69" t="s">
+        <v>4401</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>4201</v>
       </c>
-      <c r="D56" s="69" t="s">
-        <v>4402</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>4202</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="31.5">
       <c r="A57" s="3" t="s">
-        <v>4265</v>
+        <v>4264</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>4127</v>
+      </c>
+      <c r="D57" s="69" t="s">
+        <v>4370</v>
+      </c>
+      <c r="E57" s="6" t="s">
         <v>4128</v>
-      </c>
-      <c r="D57" s="69" t="s">
-        <v>4371</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>4129</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>340</v>
@@ -47574,19 +47784,19 @@
     </row>
     <row r="58" spans="1:6" ht="31.5">
       <c r="A58" s="3" t="s">
-        <v>4234</v>
+        <v>4233</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C58" s="6" t="s">
+        <v>4057</v>
+      </c>
+      <c r="D58" s="69" t="s">
+        <v>4340</v>
+      </c>
+      <c r="E58" s="6" t="s">
         <v>4058</v>
-      </c>
-      <c r="D58" s="69" t="s">
-        <v>4341</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>4059</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>340</v>
@@ -47594,19 +47804,19 @@
     </row>
     <row r="59" spans="1:6" ht="31.5">
       <c r="A59" s="3" t="s">
-        <v>4235</v>
+        <v>4234</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>4059</v>
+      </c>
+      <c r="D59" s="69" t="s">
+        <v>4341</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>4060</v>
-      </c>
-      <c r="D59" s="69" t="s">
-        <v>4342</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>4061</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>340</v>
@@ -47614,19 +47824,19 @@
     </row>
     <row r="60" spans="1:6" ht="31.5">
       <c r="A60" s="3" t="s">
-        <v>4227</v>
+        <v>4226</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>4037</v>
+      </c>
+      <c r="D60" s="69" t="s">
+        <v>4331</v>
+      </c>
+      <c r="E60" s="6" t="s">
         <v>4038</v>
-      </c>
-      <c r="D60" s="69" t="s">
-        <v>4332</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>4039</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>340</v>
@@ -47634,19 +47844,19 @@
     </row>
     <row r="61" spans="1:6" ht="31.5">
       <c r="A61" s="3" t="s">
-        <v>4242</v>
+        <v>4241</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C61" s="6" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D61" s="69" t="s">
+        <v>4348</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>4080</v>
-      </c>
-      <c r="D61" s="69" t="s">
-        <v>4349</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>4081</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>340</v>
@@ -47654,19 +47864,19 @@
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="3" t="s">
-        <v>4268</v>
+        <v>4267</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>4135</v>
+      </c>
+      <c r="D62" s="69" t="s">
+        <v>4420</v>
+      </c>
+      <c r="E62" s="6" t="s">
         <v>4136</v>
-      </c>
-      <c r="D62" s="69" t="s">
-        <v>4421</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>4137</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>340</v>
@@ -47674,19 +47884,19 @@
     </row>
     <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="3" t="s">
-        <v>4275</v>
+        <v>4274</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D63" s="69" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E63" s="6" t="s">
         <v>4154</v>
-      </c>
-      <c r="D63" s="69" t="s">
-        <v>4380</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>4155</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>340</v>
@@ -47697,16 +47907,16 @@
         <v>1035</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
       <c r="C64" s="6" t="s">
+        <v>4077</v>
+      </c>
+      <c r="D64" s="69" t="s">
+        <v>4450</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>4078</v>
-      </c>
-      <c r="D64" s="69" t="s">
-        <v>4451</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>4079</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>340</v>
@@ -47714,62 +47924,62 @@
     </row>
     <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="3" t="s">
-        <v>4231</v>
+        <v>4230</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C65" s="6" t="s">
+        <v>4051</v>
+      </c>
+      <c r="D65" s="69" t="s">
+        <v>4337</v>
+      </c>
+      <c r="E65" s="6" t="s">
         <v>4052</v>
       </c>
-      <c r="D65" s="69" t="s">
-        <v>4338</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>4053</v>
-      </c>
       <c r="F65" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="3" t="s">
-        <v>4232</v>
+        <v>4231</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>1803</v>
       </c>
       <c r="C66" s="6" t="s">
+        <v>4053</v>
+      </c>
+      <c r="D66" s="69" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E66" s="6" t="s">
         <v>4054</v>
       </c>
-      <c r="D66" s="69" t="s">
-        <v>4339</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>4055</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="3" t="s">
-        <v>4233</v>
+        <v>4232</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>4055</v>
+      </c>
+      <c r="D67" s="69" t="s">
+        <v>4339</v>
+      </c>
+      <c r="E67" s="6" t="s">
         <v>4056</v>
       </c>
-      <c r="D67" s="69" t="s">
-        <v>4340</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>4057</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="31.5">
@@ -47780,36 +47990,36 @@
         <v>1832</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D68" s="69" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E68" s="6" t="s">
         <v>4162</v>
       </c>
-      <c r="D68" s="69" t="s">
-        <v>4383</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>4163</v>
-      </c>
       <c r="F68" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="31.5">
       <c r="A69" s="3" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>4163</v>
+      </c>
+      <c r="D69" s="69" t="s">
+        <v>4383</v>
+      </c>
+      <c r="E69" s="6" t="s">
         <v>4164</v>
       </c>
-      <c r="D69" s="69" t="s">
-        <v>4384</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>4165</v>
-      </c>
       <c r="F69" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="31.5">
@@ -47820,36 +48030,36 @@
         <v>1832</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D70" s="69" t="s">
+        <v>4384</v>
+      </c>
+      <c r="E70" s="6" t="s">
         <v>4166</v>
       </c>
-      <c r="D70" s="69" t="s">
-        <v>4385</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>4167</v>
-      </c>
       <c r="F70" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="31.5">
       <c r="A71" s="3" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C71" s="6" t="s">
+        <v>4167</v>
+      </c>
+      <c r="D71" s="69" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E71" s="6" t="s">
         <v>4168</v>
       </c>
-      <c r="D71" s="69" t="s">
-        <v>4386</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>4169</v>
-      </c>
       <c r="F71" s="3" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15.75">
@@ -47857,16 +48067,16 @@
         <v>1171</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D72" s="69" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E72" s="6" t="s">
         <v>4036</v>
-      </c>
-      <c r="D72" s="69" t="s">
-        <v>4331</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>4037</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>177</v>
@@ -47874,19 +48084,19 @@
     </row>
     <row r="73" spans="1:6" ht="31.5">
       <c r="A73" s="3" t="s">
-        <v>4269</v>
+        <v>4268</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C73" s="6" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E73" s="6" t="s">
         <v>4138</v>
-      </c>
-      <c r="D73" s="69" t="s">
-        <v>4373</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>4139</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>177</v>
@@ -47894,19 +48104,19 @@
     </row>
     <row r="74" spans="1:6" ht="31.5">
       <c r="A74" s="3" t="s">
-        <v>4270</v>
+        <v>4269</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>4140</v>
-      </c>
-      <c r="D74" s="69" t="s">
-        <v>4374</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>4141</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>177</v>
@@ -47914,19 +48124,19 @@
     </row>
     <row r="75" spans="1:6" ht="31.5">
       <c r="A75" s="3" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="C75" s="6" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>4386</v>
+      </c>
+      <c r="E75" s="6" t="s">
         <v>4170</v>
-      </c>
-      <c r="D75" s="69" t="s">
-        <v>4387</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>4171</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>177</v>
@@ -47934,19 +48144,19 @@
     </row>
     <row r="76" spans="1:6" ht="15.75">
       <c r="A76" s="3" t="s">
-        <v>4245</v>
+        <v>4244</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>4351</v>
+      </c>
+      <c r="E76" s="6" t="s">
         <v>4086</v>
-      </c>
-      <c r="D76" s="69" t="s">
-        <v>4352</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>4087</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>991</v>
@@ -47954,19 +48164,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="3" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>4171</v>
+      </c>
+      <c r="D77" s="69" t="s">
+        <v>4387</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>4172</v>
-      </c>
-      <c r="D77" s="69" t="s">
-        <v>4388</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>4173</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>991</v>
@@ -47980,13 +48190,13 @@
         <v>1832</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>4388</v>
+      </c>
+      <c r="E78" s="6" t="s">
         <v>4174</v>
-      </c>
-      <c r="D78" s="69" t="s">
-        <v>4389</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>4175</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>991</v>
@@ -48000,13 +48210,13 @@
         <v>1832</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>4175</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>4389</v>
+      </c>
+      <c r="E79" s="6" t="s">
         <v>4176</v>
-      </c>
-      <c r="D79" s="69" t="s">
-        <v>4390</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>4177</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>991</v>
@@ -48014,19 +48224,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75">
       <c r="A80" s="3" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>4202</v>
+      </c>
+      <c r="D80" s="69" t="s">
+        <v>4415</v>
+      </c>
+      <c r="E80" s="6" t="s">
         <v>4203</v>
-      </c>
-      <c r="D80" s="69" t="s">
-        <v>4416</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>4204</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>991</v>
@@ -48034,19 +48244,19 @@
     </row>
     <row r="81" spans="1:6" ht="31.5">
       <c r="A81" s="3" t="s">
-        <v>4295</v>
+        <v>4294</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>4204</v>
+      </c>
+      <c r="D81" s="69" t="s">
+        <v>4416</v>
+      </c>
+      <c r="E81" s="6" t="s">
         <v>4205</v>
-      </c>
-      <c r="D81" s="69" t="s">
-        <v>4417</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>4206</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>991</v>
@@ -48060,13 +48270,13 @@
         <v>1832</v>
       </c>
       <c r="C82" s="6" t="s">
+        <v>4047</v>
+      </c>
+      <c r="D82" s="69" t="s">
+        <v>4336</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>4048</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>4337</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>4049</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>991</v>
@@ -48074,19 +48284,19 @@
     </row>
     <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="3" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="C83" s="6" t="s">
+        <v>4222</v>
+      </c>
+      <c r="D83" s="69" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E83" s="6" t="s">
         <v>4223</v>
-      </c>
-      <c r="D83" s="69" t="s">
-        <v>4410</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>4224</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>991</v>
@@ -48094,19 +48304,19 @@
     </row>
     <row r="84" spans="1:6" ht="31.5">
       <c r="A84" s="3" t="s">
-        <v>4284</v>
+        <v>4283</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="C84" s="6" t="s">
+        <v>4179</v>
+      </c>
+      <c r="D84" s="69" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E84" s="6" t="s">
         <v>4180</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>4392</v>
-      </c>
-      <c r="E84" s="6" t="s">
-        <v>4181</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>535</v>
@@ -48114,19 +48324,19 @@
     </row>
     <row r="85" spans="1:6" ht="31.5">
       <c r="A85" s="3" t="s">
-        <v>4251</v>
+        <v>4250</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C85" s="6" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D85" s="69" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>4098</v>
-      </c>
-      <c r="D85" s="69" t="s">
-        <v>4357</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>4099</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>817</v>
@@ -48134,19 +48344,19 @@
     </row>
     <row r="86" spans="1:6" ht="31.5">
       <c r="A86" s="3" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>4198</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>4400</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>4199</v>
-      </c>
-      <c r="D86" s="69" t="s">
-        <v>4401</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>4200</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>817</v>
@@ -48154,59 +48364,59 @@
     </row>
     <row r="87" spans="1:6" ht="31.5">
       <c r="A87" s="3" t="s">
-        <v>4296</v>
+        <v>4295</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>4311</v>
+        <v>4310</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>4206</v>
+      </c>
+      <c r="D87" s="69" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E87" s="6" t="s">
         <v>4207</v>
       </c>
-      <c r="D87" s="69" t="s">
-        <v>4403</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>4208</v>
-      </c>
       <c r="F87" s="3" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="31.5">
       <c r="A88" s="3" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>4307</v>
+        <v>4306</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>4208</v>
+      </c>
+      <c r="D88" s="69" t="s">
+        <v>4403</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>4209</v>
       </c>
-      <c r="D88" s="69" t="s">
-        <v>4404</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>4210</v>
-      </c>
       <c r="F88" s="3" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="47.25">
       <c r="A89" s="3" t="s">
-        <v>4237</v>
+        <v>4236</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>1800</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>4065</v>
+      </c>
+      <c r="D89" s="69" t="s">
+        <v>4343</v>
+      </c>
+      <c r="E89" s="6" t="s">
         <v>4066</v>
-      </c>
-      <c r="D89" s="69" t="s">
-        <v>4344</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>4067</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>589</v>
@@ -48220,13 +48430,13 @@
         <v>1800</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D90" s="69" t="s">
+        <v>4347</v>
+      </c>
+      <c r="E90" s="6" t="s">
         <v>4076</v>
-      </c>
-      <c r="D90" s="69" t="s">
-        <v>4348</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>4077</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>589</v>
@@ -48234,19 +48444,19 @@
     </row>
     <row r="91" spans="1:6" ht="31.5">
       <c r="A91" s="3" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>4376</v>
+      </c>
+      <c r="E91" s="6" t="s">
         <v>4146</v>
-      </c>
-      <c r="D91" s="69" t="s">
-        <v>4377</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>4147</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>589</v>
@@ -48260,13 +48470,13 @@
         <v>1800</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>4045</v>
+      </c>
+      <c r="D92" s="69" t="s">
+        <v>4335</v>
+      </c>
+      <c r="E92" s="6" t="s">
         <v>4046</v>
-      </c>
-      <c r="D92" s="69" t="s">
-        <v>4336</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>4047</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>589</v>
@@ -48274,59 +48484,59 @@
     </row>
     <row r="93" spans="1:6" ht="15.75">
       <c r="A93" s="3" t="s">
-        <v>4238</v>
+        <v>4237</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>4321</v>
+        <v>4320</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>4067</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E93" s="6" t="s">
         <v>4068</v>
       </c>
-      <c r="D93" s="69" t="s">
-        <v>4345</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>4069</v>
-      </c>
       <c r="F93" s="3" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="3" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>4310</v>
+        <v>4309</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>4212</v>
+      </c>
+      <c r="D94" s="69" t="s">
+        <v>4405</v>
+      </c>
+      <c r="E94" s="6" t="s">
         <v>4213</v>
       </c>
-      <c r="D94" s="69" t="s">
-        <v>4406</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>4214</v>
-      </c>
       <c r="F94" s="3" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="47.25">
       <c r="A95" s="3" t="s">
-        <v>4250</v>
+        <v>4249</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>4095</v>
+      </c>
+      <c r="D95" s="69" t="s">
+        <v>4355</v>
+      </c>
+      <c r="E95" s="6" t="s">
         <v>4096</v>
-      </c>
-      <c r="D95" s="69" t="s">
-        <v>4356</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>4097</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>673</v>
@@ -48337,16 +48547,16 @@
         <v>673</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>4306</v>
+        <v>4305</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>4220</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>4408</v>
+      </c>
+      <c r="E96" s="6" t="s">
         <v>4221</v>
-      </c>
-      <c r="D96" s="69" t="s">
-        <v>4409</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>4222</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>673</v>
@@ -48357,16 +48567,16 @@
         <v>702</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>4224</v>
+      </c>
+      <c r="D97" s="69" t="s">
+        <v>4410</v>
+      </c>
+      <c r="E97" s="6" t="s">
         <v>4225</v>
-      </c>
-      <c r="D97" s="69" t="s">
-        <v>4411</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>4226</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>673</v>
@@ -48377,33 +48587,33 @@
         <v>13</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>4061</v>
+      </c>
+      <c r="D98" s="69" t="s">
+        <v>4451</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>4062</v>
-      </c>
-      <c r="D98" s="69" t="s">
-        <v>4452</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>4063</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="3" t="s">
-        <v>4247</v>
+        <v>4246</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="C99" s="6" t="s">
+        <v>4089</v>
+      </c>
+      <c r="D99" s="69" t="s">
+        <v>4352</v>
+      </c>
+      <c r="E99" s="6" t="s">
         <v>4090</v>
-      </c>
-      <c r="D99" s="69" t="s">
-        <v>4353</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>4091</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="47.25">
@@ -48414,47 +48624,47 @@
         <v>1832</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D100" s="69" t="s">
+        <v>4371</v>
+      </c>
+      <c r="E100" s="6" t="s">
         <v>4134</v>
-      </c>
-      <c r="D100" s="69" t="s">
-        <v>4372</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>4135</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="3" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>4151</v>
+      </c>
+      <c r="D101" s="69" t="s">
+        <v>4378</v>
+      </c>
+      <c r="E101" s="6" t="s">
         <v>4152</v>
-      </c>
-      <c r="D101" s="69" t="s">
-        <v>4379</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>4153</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="30">
       <c r="A102" s="3" t="s">
-        <v>4326</v>
+        <v>4325</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>1832</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="E102" s="6" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
     </row>
   </sheetData>
